--- a/java/src/main/resources/价格核算.xlsx
+++ b/java/src/main/resources/价格核算.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\github\cake_category\java\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="原材料" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="中级产品" sheetId="5" r:id="rId3"/>
     <sheet name="联合产品页" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -394,15 +399,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.000"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,345 +412,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -772,251 +450,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1027,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1048,68 +484,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1367,27 +759,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.7777777777778" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.2222222222222" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1401,7 +793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1416,7 +808,7 @@
         <v>0.1384</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1428,10 +820,10 @@
       </c>
       <c r="D3" s="9">
         <f t="shared" ref="D3:D68" si="0">C3/B3</f>
-        <v>0.068</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1439,14 +831,14 @@
         <v>500</v>
       </c>
       <c r="C4" s="3">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="D4" s="9">
         <f t="shared" si="0"/>
-        <v>0.0716</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>7.1599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1458,10 +850,10 @@
       </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
-        <v>0.044</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1473,10 +865,10 @@
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
-        <v>0.048</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1488,10 +880,10 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
-        <v>0.021</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1503,10 +895,10 @@
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
-        <v>0.00933333333333333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>9.3333333333333341E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1518,10 +910,10 @@
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
-        <v>0.0182819383259912</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>1.828193832599119E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1533,10 +925,10 @@
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
-        <v>0.0168869309838473</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>1.6886930983847283E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1548,10 +940,10 @@
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
-        <v>0.00726872246696035</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>7.2687224669603524E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1563,10 +955,10 @@
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
-        <v>0.0108333333333333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>1.0833333333333334E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1581,7 +973,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1593,10 +985,10 @@
       </c>
       <c r="D14" s="9">
         <f t="shared" si="0"/>
-        <v>0.046</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -1608,10 +1000,10 @@
       </c>
       <c r="D15" s="9">
         <f t="shared" si="0"/>
-        <v>0.045</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -1623,10 +1015,10 @@
       </c>
       <c r="D16" s="9">
         <f t="shared" si="0"/>
-        <v>0.344</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -1634,14 +1026,14 @@
         <v>100</v>
       </c>
       <c r="C17" s="3">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D17" s="9">
         <f t="shared" si="0"/>
-        <v>0.098</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -1649,7 +1041,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -1657,7 +1049,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -1672,7 +1064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -1684,10 +1076,10 @@
       </c>
       <c r="D21" s="9">
         <f t="shared" si="0"/>
-        <v>0.0175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -1699,10 +1091,10 @@
       </c>
       <c r="D22" s="9">
         <f t="shared" si="0"/>
-        <v>0.0118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>1.1800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
@@ -1714,10 +1106,10 @@
       </c>
       <c r="D23" s="9">
         <f t="shared" si="0"/>
-        <v>0.0099</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>9.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
@@ -1725,7 +1117,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1737,10 +1129,10 @@
       </c>
       <c r="D25" s="9">
         <f>C25/B25</f>
-        <v>0.0365</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>3.6499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
@@ -1748,7 +1140,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
@@ -1760,10 +1152,10 @@
       </c>
       <c r="D27" s="9">
         <f t="shared" si="0"/>
-        <v>0.0633333333333333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>6.3333333333333339E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
@@ -1775,10 +1167,10 @@
       </c>
       <c r="D28" s="9">
         <f t="shared" si="0"/>
-        <v>0.0633333333333333</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>6.3333333333333339E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
@@ -1790,10 +1182,10 @@
       </c>
       <c r="D29" s="9">
         <f t="shared" si="0"/>
-        <v>0.0733333333333333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>7.3333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
@@ -1805,10 +1197,10 @@
       </c>
       <c r="D30" s="9">
         <f t="shared" si="0"/>
-        <v>0.535714285714286</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.5357142857142857</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>33</v>
       </c>
@@ -1820,10 +1212,10 @@
       </c>
       <c r="D31" s="9">
         <f t="shared" si="0"/>
-        <v>0.0752</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>7.5200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
@@ -1838,7 +1230,7 @@
         <v>1.2375</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
@@ -1850,10 +1242,10 @@
       </c>
       <c r="D33" s="9">
         <f t="shared" si="0"/>
-        <v>0.066</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
@@ -1865,10 +1257,10 @@
       </c>
       <c r="D34" s="9">
         <f t="shared" si="0"/>
-        <v>0.0592</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>5.9200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
@@ -1880,10 +1272,10 @@
       </c>
       <c r="D35" s="9">
         <f t="shared" si="0"/>
-        <v>0.0672</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>6.720000000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>38</v>
       </c>
@@ -1898,7 +1290,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>39</v>
       </c>
@@ -1910,10 +1302,10 @@
       </c>
       <c r="D37" s="9">
         <f t="shared" si="0"/>
-        <v>0.0426666666666667</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>4.2666666666666672E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>40</v>
       </c>
@@ -1921,7 +1313,7 @@
       <c r="C38" s="3"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>41</v>
       </c>
@@ -1933,10 +1325,10 @@
       </c>
       <c r="D39" s="9">
         <f t="shared" ref="D39:D43" si="1">C39/B39</f>
-        <v>0.027</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>42</v>
       </c>
@@ -1948,10 +1340,10 @@
       </c>
       <c r="D40" s="9">
         <f t="shared" si="1"/>
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>43</v>
       </c>
@@ -1963,10 +1355,10 @@
       </c>
       <c r="D41" s="9">
         <f t="shared" si="1"/>
-        <v>0.038</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>44</v>
       </c>
@@ -1978,10 +1370,10 @@
       </c>
       <c r="D42" s="9">
         <f t="shared" si="1"/>
-        <v>0.165</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>45</v>
       </c>
@@ -1996,7 +1388,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>46</v>
       </c>
@@ -2008,10 +1400,10 @@
       </c>
       <c r="D44" s="9">
         <f t="shared" si="0"/>
-        <v>0.0550660792951542</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>5.5066079295154183E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>47</v>
       </c>
@@ -2023,10 +1415,10 @@
       </c>
       <c r="D45" s="9">
         <f t="shared" si="0"/>
-        <v>0.066079295154185</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>6.6079295154185022E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>48</v>
       </c>
@@ -2038,10 +1430,10 @@
       </c>
       <c r="D46" s="9">
         <f t="shared" si="0"/>
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>49</v>
       </c>
@@ -2053,10 +1445,10 @@
       </c>
       <c r="D47" s="9">
         <f t="shared" si="0"/>
-        <v>0.513274336283186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.51327433628318586</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>50</v>
       </c>
@@ -2064,7 +1456,7 @@
       <c r="C48" s="3"/>
       <c r="D48" s="9"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -2076,10 +1468,10 @@
       </c>
       <c r="D49" s="9">
         <f>C49/B49</f>
-        <v>0.0338235294117647</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>3.3823529411764704E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>52</v>
       </c>
@@ -2091,10 +1483,10 @@
       </c>
       <c r="D50" s="9">
         <f t="shared" si="0"/>
-        <v>0.0477941176470588</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>4.779411764705882E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>53</v>
       </c>
@@ -2106,10 +1498,10 @@
       </c>
       <c r="D51" s="9">
         <f t="shared" si="0"/>
-        <v>0.045</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>54</v>
       </c>
@@ -2117,7 +1509,7 @@
       <c r="C52" s="3"/>
       <c r="D52" s="9"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>55</v>
       </c>
@@ -2125,14 +1517,14 @@
         <v>100</v>
       </c>
       <c r="C53" s="3">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D53" s="9">
         <f t="shared" si="0"/>
-        <v>0.088</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>8.8000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>56</v>
       </c>
@@ -2144,10 +1536,10 @@
       </c>
       <c r="D54" s="9">
         <f t="shared" si="0"/>
-        <v>0.0125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>57</v>
       </c>
@@ -2159,10 +1551,10 @@
       </c>
       <c r="D55" s="9">
         <f t="shared" si="0"/>
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>58</v>
       </c>
@@ -2174,10 +1566,10 @@
       </c>
       <c r="D56" s="9">
         <f t="shared" si="0"/>
-        <v>0.004</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>59</v>
       </c>
@@ -2189,10 +1581,10 @@
       </c>
       <c r="D57" s="9">
         <f t="shared" si="0"/>
-        <v>0.0490196078431373</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>4.9019607843137254E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>60</v>
       </c>
@@ -2204,10 +1596,10 @@
       </c>
       <c r="D58" s="9">
         <f t="shared" si="0"/>
-        <v>0.144</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>61</v>
       </c>
@@ -2222,7 +1614,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>62</v>
       </c>
@@ -2237,7 +1629,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>63</v>
       </c>
@@ -2249,10 +1641,10 @@
       </c>
       <c r="D61" s="9">
         <f t="shared" si="0"/>
-        <v>0.0285714285714286</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>2.8571428571428571E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>64</v>
       </c>
@@ -2267,7 +1659,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>65</v>
       </c>
@@ -2279,10 +1671,10 @@
       </c>
       <c r="D63" s="9">
         <f t="shared" si="0"/>
-        <v>0.116740088105727</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.11674008810572688</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>66</v>
       </c>
@@ -2294,10 +1686,10 @@
       </c>
       <c r="D64" s="9">
         <f t="shared" si="0"/>
-        <v>0.083</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>67</v>
       </c>
@@ -2312,7 +1704,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>68</v>
       </c>
@@ -2324,10 +1716,10 @@
       </c>
       <c r="D66" s="9">
         <f t="shared" si="0"/>
-        <v>0.0936</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>9.3599999999999989E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>69</v>
       </c>
@@ -2335,14 +1727,14 @@
         <v>1</v>
       </c>
       <c r="C67" s="3">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D67" s="9">
         <f t="shared" si="0"/>
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>70</v>
       </c>
@@ -2354,902 +1746,901 @@
       </c>
       <c r="D68" s="9">
         <f t="shared" si="0"/>
-        <v>0.024</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.11111111111111" customWidth="1"/>
-    <col min="3" max="3" width="19.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="17.2222222222222" customWidth="1"/>
-    <col min="8" max="8" width="9.88888888888889" customWidth="1"/>
-    <col min="9" max="9" width="17.2222222222222" customWidth="1"/>
-    <col min="12" max="12" width="17.2222222222222" customWidth="1"/>
-    <col min="15" max="15" width="14.2222222222222" customWidth="1"/>
-    <col min="21" max="21" width="11.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="18.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
+    <col min="9" max="9" width="17.25" customWidth="1"/>
+    <col min="12" max="12" width="17.25" customWidth="1"/>
+    <col min="15" max="15" width="14.25" customWidth="1"/>
+    <col min="21" max="21" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:32">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>71</v>
       </c>
@@ -3347,13 +2738,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="5">
         <f t="shared" ref="B2:B50" si="0">IF(IF(E2&lt;&gt;"",E2,0)+IF(H2&lt;&gt;"",H2,0)+IF(K2&lt;&gt;"",K2,0)+IF(N2&lt;&gt;"",N2,0)+IF(Q2&lt;&gt;"",Q2,0)+IF(T2&lt;&gt;"",T2,0)+IF(W2&lt;&gt;"",W2,0)+IF(Z2&lt;&gt;"",Z2,0)+IF(AC2&lt;&gt;"",AC2,0)+IF(AF2&lt;&gt;"",AF2,0)&lt;&gt;0,IF(E2&lt;&gt;"",E2,0)+IF(H2&lt;&gt;"",H2,0)+IF(K2&lt;&gt;"",K2,0)+IF(N2&lt;&gt;"",N2,0)+IF(Q2&lt;&gt;"",Q2,0)+IF(T2&lt;&gt;"",T2,0)+IF(W2&lt;&gt;"",W2,0)+IF(Z2&lt;&gt;"",Z2,0)+IF(AC2&lt;&gt;"",AC2,0)+IF(AF2&lt;&gt;"",AF2,0),"")</f>
-        <v>4.68439941262849</v>
+        <v>4.6843994126284887</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
@@ -3373,7 +2764,7 @@
       </c>
       <c r="H2" s="7">
         <f>IF(OR(G2=0,G2=""),"",IF(F2&lt;&gt;"",VLOOKUP(F2,联合产品页!$B$2:$C$25540,2,FALSE),0)*G2)</f>
-        <v>0.494273127753304</v>
+        <v>0.49427312775330395</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>11</v>
@@ -3383,7 +2774,7 @@
       </c>
       <c r="K2" s="7">
         <f>IF(OR(J2=0,J2=""),"",IF(I2&lt;&gt;"",VLOOKUP(I2,联合产品页!$B$2:$C$25540,2,FALSE),0)*J2)</f>
-        <v>0.31079295154185</v>
+        <v>0.31079295154185022</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>15</v>
@@ -3403,7 +2794,7 @@
       </c>
       <c r="Q2" s="7">
         <f>IF(OR(P2=0,P2=""),"",IF(O2&lt;&gt;"",VLOOKUP(O2,联合产品页!$B$2:$C$25540,2,FALSE),0)*P2)</f>
-        <v>0.513333333333333</v>
+        <v>0.51333333333333331</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>16</v>
@@ -3413,7 +2804,7 @@
       </c>
       <c r="T2" s="7">
         <f>IF(OR(S2=0,S2=""),"",IF(R2&lt;&gt;"",VLOOKUP(R2,联合产品页!$B$2:$C$25540,2,FALSE),0)*S2)</f>
-        <v>0.046</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
@@ -3440,13 +2831,13 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="5">
         <f t="shared" si="0"/>
-        <v>4.40695668135096</v>
+        <v>4.4069566813509553</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
@@ -3456,7 +2847,7 @@
       </c>
       <c r="E3" s="7">
         <f>IF(OR(D3=0,D3=""),"",IF(C3&lt;&gt;"",VLOOKUP(C3,联合产品页!$B$2:$C$25540,2,FALSE),0)*D3)</f>
-        <v>1.7</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>14</v>
@@ -3466,7 +2857,7 @@
       </c>
       <c r="H3" s="7">
         <f>IF(OR(G3=0,G3=""),"",IF(F3&lt;&gt;"",VLOOKUP(F3,联合产品页!$B$2:$C$25540,2,FALSE),0)*G3)</f>
-        <v>0.270833333333333</v>
+        <v>0.27083333333333337</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>13</v>
@@ -3476,7 +2867,7 @@
       </c>
       <c r="K3" s="7">
         <f>IF(OR(J3=0,J3=""),"",IF(I3&lt;&gt;"",VLOOKUP(I3,联合产品页!$B$2:$C$25540,2,FALSE),0)*J3)</f>
-        <v>0.436123348017621</v>
+        <v>0.43612334801762115</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>15</v>
@@ -3525,13 +2916,13 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B4" s="5">
         <f t="shared" si="0"/>
-        <v>4.47626211453745</v>
+        <v>4.4762621145374455</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -3551,7 +2942,7 @@
       </c>
       <c r="H4" s="7">
         <f>IF(OR(G4=0,G4=""),"",IF(F4&lt;&gt;"",VLOOKUP(F4,联合产品页!$B$2:$C$25540,2,FALSE),0)*G4)</f>
-        <v>0.365638766519824</v>
+        <v>0.3656387665198238</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>15</v>
@@ -3571,7 +2962,7 @@
       </c>
       <c r="N4" s="7">
         <f>IF(OR(M4=0,M4=""),"",IF(L4&lt;&gt;"",VLOOKUP(L4,联合产品页!$B$2:$C$25540,2,FALSE),0)*M4)</f>
-        <v>0.436123348017621</v>
+        <v>0.43612334801762115</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>52</v>
@@ -3591,7 +2982,7 @@
       </c>
       <c r="T4" s="7">
         <f>IF(OR(S4=0,S4=""),"",IF(R4&lt;&gt;"",VLOOKUP(R4,联合产品页!$B$2:$C$25540,2,FALSE),0)*S4)</f>
-        <v>0.046</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
@@ -3618,13 +3009,13 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" si="0"/>
-        <v>4.58612334801762</v>
+        <v>4.5861233480176216</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -3644,7 +3035,7 @@
       </c>
       <c r="H5" s="7">
         <f>IF(OR(G5=0,G5=""),"",IF(F5&lt;&gt;"",VLOOKUP(F5,联合产品页!$B$2:$C$25540,2,FALSE),0)*G5)</f>
-        <v>0.436123348017621</v>
+        <v>0.43612334801762115</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>19</v>
@@ -3654,7 +3045,7 @@
       </c>
       <c r="K5" s="7">
         <f>IF(OR(J5=0,J5=""),"",IF(I5&lt;&gt;"",VLOOKUP(I5,联合产品页!$B$2:$C$25540,2,FALSE),0)*J5)</f>
-        <v>0.784</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>15</v>
@@ -3674,7 +3065,7 @@
       </c>
       <c r="Q5" s="7">
         <f>IF(OR(P5=0,P5=""),"",IF(O5&lt;&gt;"",VLOOKUP(O5,联合产品页!$B$2:$C$25540,2,FALSE),0)*P5)</f>
-        <v>0.046</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
@@ -3707,13 +3098,13 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
-        <v>4.20824889867841</v>
+        <v>4.2082488986784146</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>15</v>
@@ -3733,7 +3124,7 @@
       </c>
       <c r="H6" s="7">
         <f>IF(OR(G6=0,G6=""),"",IF(F6&lt;&gt;"",VLOOKUP(F6,联合产品页!$B$2:$C$25540,2,FALSE),0)*G6)</f>
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>14</v>
@@ -3743,7 +3134,7 @@
       </c>
       <c r="K6" s="7">
         <f>IF(OR(J6=0,J6=""),"",IF(I6&lt;&gt;"",VLOOKUP(I6,联合产品页!$B$2:$C$25540,2,FALSE),0)*J6)</f>
-        <v>0.325</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>56</v>
@@ -3763,7 +3154,7 @@
       </c>
       <c r="Q6" s="7">
         <f>IF(OR(P6=0,P6=""),"",IF(O6&lt;&gt;"",VLOOKUP(O6,联合产品页!$B$2:$C$25540,2,FALSE),0)*P6)</f>
-        <v>0.290748898678414</v>
+        <v>0.29074889867841408</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
@@ -3796,13 +3187,13 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
-        <v>8.41649779735683</v>
+        <v>8.4164977973568291</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>15</v>
@@ -3822,7 +3213,7 @@
       </c>
       <c r="H7" s="7">
         <f>IF(OR(G7=0,G7=""),"",IF(F7&lt;&gt;"",VLOOKUP(F7,联合产品页!$B$2:$C$25540,2,FALSE),0)*G7)</f>
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>14</v>
@@ -3852,7 +3243,7 @@
       </c>
       <c r="Q7" s="7">
         <f>IF(OR(P7=0,P7=""),"",IF(O7&lt;&gt;"",VLOOKUP(O7,联合产品页!$B$2:$C$25540,2,FALSE),0)*P7)</f>
-        <v>0.581497797356828</v>
+        <v>0.58149779735682816</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -3885,13 +3276,13 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
-        <v>4.90246696035242</v>
+        <v>4.9024669603524238</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>15</v>
@@ -3911,7 +3302,7 @@
       </c>
       <c r="H8" s="7">
         <f>IF(OR(G8=0,G8=""),"",IF(F8&lt;&gt;"",VLOOKUP(F8,联合产品页!$B$2:$C$25540,2,FALSE),0)*G8)</f>
-        <v>0.513333333333333</v>
+        <v>0.51333333333333342</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>14</v>
@@ -3921,7 +3312,7 @@
       </c>
       <c r="K8" s="7">
         <f>IF(OR(J8=0,J8=""),"",IF(I8&lt;&gt;"",VLOOKUP(I8,联合产品页!$B$2:$C$25540,2,FALSE),0)*J8)</f>
-        <v>0.541666666666667</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>56</v>
@@ -3941,7 +3332,7 @@
       </c>
       <c r="Q8" s="7">
         <f>IF(OR(P8=0,P8=""),"",IF(O8&lt;&gt;"",VLOOKUP(O8,联合产品页!$B$2:$C$25540,2,FALSE),0)*P8)</f>
-        <v>0.472466960352423</v>
+        <v>0.47246696035242292</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
@@ -3974,13 +3365,13 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
-        <v>9.80493392070485</v>
+        <v>9.8049339207048476</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>15</v>
@@ -4000,7 +3391,7 @@
       </c>
       <c r="H9" s="7">
         <f>IF(OR(G9=0,G9=""),"",IF(F9&lt;&gt;"",VLOOKUP(F9,联合产品页!$B$2:$C$25540,2,FALSE),0)*G9)</f>
-        <v>1.02666666666667</v>
+        <v>1.0266666666666668</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>14</v>
@@ -4010,7 +3401,7 @@
       </c>
       <c r="K9" s="7">
         <f>IF(OR(J9=0,J9=""),"",IF(I9&lt;&gt;"",VLOOKUP(I9,联合产品页!$B$2:$C$25540,2,FALSE),0)*J9)</f>
-        <v>1.08333333333333</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>56</v>
@@ -4030,7 +3421,7 @@
       </c>
       <c r="Q9" s="7">
         <f>IF(OR(P9=0,P9=""),"",IF(O9&lt;&gt;"",VLOOKUP(O9,联合产品页!$B$2:$C$25540,2,FALSE),0)*P9)</f>
-        <v>0.944933920704846</v>
+        <v>0.94493392070484583</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
@@ -4063,13 +3454,13 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
-        <v>8.7255389133627</v>
+        <v>8.725538913362703</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>15</v>
@@ -4099,7 +3490,7 @@
       </c>
       <c r="K10" s="7">
         <f>IF(OR(J10=0,J10=""),"",IF(I10&lt;&gt;"",VLOOKUP(I10,联合产品页!$B$2:$C$25540,2,FALSE),0)*J10)</f>
-        <v>0.466666666666667</v>
+        <v>0.46666666666666673</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>13</v>
@@ -4109,7 +3500,7 @@
       </c>
       <c r="N10" s="7">
         <f>IF(OR(M10=0,M10=""),"",IF(L10&lt;&gt;"",VLOOKUP(L10,联合产品页!$B$2:$C$25540,2,FALSE),0)*M10)</f>
-        <v>0.726872246696035</v>
+        <v>0.72687224669603523</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>16</v>
@@ -4119,7 +3510,7 @@
       </c>
       <c r="Q10" s="7">
         <f>IF(OR(P10=0,P10=""),"",IF(O10&lt;&gt;"",VLOOKUP(O10,联合产品页!$B$2:$C$25540,2,FALSE),0)*P10)</f>
-        <v>0.092</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
@@ -4152,13 +3543,13 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
-        <v>0.996666666666667</v>
+        <v>0.9966666666666667</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
@@ -4168,7 +3559,7 @@
       </c>
       <c r="E11" s="7">
         <f>IF(OR(D11=0,D11=""),"",IF(C11&lt;&gt;"",VLOOKUP(C11,联合产品页!$B$2:$C$25540,2,FALSE),0)*D11)</f>
-        <v>0.0466666666666667</v>
+        <v>4.6666666666666669E-2</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>57</v>
@@ -4178,7 +3569,7 @@
       </c>
       <c r="H11" s="7">
         <f>IF(OR(G11=0,G11=""),"",IF(F11&lt;&gt;"",VLOOKUP(F11,联合产品页!$B$2:$C$25540,2,FALSE),0)*G11)</f>
-        <v>0.35</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>8</v>
@@ -4237,13 +3628,13 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
-        <v>6.63333333333333</v>
+        <v>6.6333333333333337</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>15</v>
@@ -4263,7 +3654,7 @@
       </c>
       <c r="H12" s="7">
         <f>IF(OR(G12=0,G12=""),"",IF(F12&lt;&gt;"",VLOOKUP(F12,联合产品页!$B$2:$C$25540,2,FALSE),0)*G12)</f>
-        <v>0.466666666666667</v>
+        <v>0.46666666666666673</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>14</v>
@@ -4273,7 +3664,7 @@
       </c>
       <c r="K12" s="7">
         <f>IF(OR(J12=0,J12=""),"",IF(I12&lt;&gt;"",VLOOKUP(I12,联合产品页!$B$2:$C$25540,2,FALSE),0)*J12)</f>
-        <v>0.541666666666667</v>
+        <v>0.54166666666666674</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>56</v>
@@ -4322,13 +3713,13 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
-        <v>65.5489133627019</v>
+        <v>65.54891336270191</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>35</v>
@@ -4338,7 +3729,7 @@
       </c>
       <c r="E13" s="7">
         <f>IF(OR(D13=0,D13=""),"",IF(C13&lt;&gt;"",VLOOKUP(C13,联合产品页!$B$2:$C$25540,2,FALSE),0)*D13)</f>
-        <v>7.26</v>
+        <v>7.2600000000000007</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>24</v>
@@ -4348,7 +3739,7 @@
       </c>
       <c r="H13" s="7">
         <f>IF(OR(G13=0,G13=""),"",IF(F13&lt;&gt;"",VLOOKUP(F13,联合产品页!$B$2:$C$25540,2,FALSE),0)*G13)</f>
-        <v>1.77</v>
+        <v>1.7700000000000002</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>10</v>
@@ -4358,7 +3749,7 @@
       </c>
       <c r="K13" s="7">
         <f>IF(OR(J13=0,J13=""),"",IF(I13&lt;&gt;"",VLOOKUP(I13,联合产品页!$B$2:$C$25540,2,FALSE),0)*J13)</f>
-        <v>0.186666666666667</v>
+        <v>0.18666666666666668</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>58</v>
@@ -4378,7 +3769,7 @@
       </c>
       <c r="Q13" s="7">
         <f>IF(OR(P13=0,P13=""),"",IF(O13&lt;&gt;"",VLOOKUP(O13,联合产品页!$B$2:$C$25540,2,FALSE),0)*P13)</f>
-        <v>0.872246696035242</v>
+        <v>0.8722466960352423</v>
       </c>
       <c r="R13" s="4" t="s">
         <v>69</v>
@@ -4419,13 +3810,13 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
-        <v>2.90279001468429</v>
+        <v>2.902790014684288</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>10</v>
@@ -4435,7 +3826,7 @@
       </c>
       <c r="E14" s="7">
         <f>IF(OR(D14=0,D14=""),"",IF(C14&lt;&gt;"",VLOOKUP(C14,联合产品页!$B$2:$C$25540,2,FALSE),0)*D14)</f>
-        <v>0.466666666666667</v>
+        <v>0.46666666666666673</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>15</v>
@@ -4455,7 +3846,7 @@
       </c>
       <c r="K14" s="7">
         <f>IF(OR(J14=0,J14=""),"",IF(I14&lt;&gt;"",VLOOKUP(I14,联合产品页!$B$2:$C$25540,2,FALSE),0)*J14)</f>
-        <v>0.436123348017621</v>
+        <v>0.43612334801762115</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -4500,13 +3891,13 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
-        <v>4.45283039647577</v>
+        <v>4.4528303964757709</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -4516,7 +3907,7 @@
       </c>
       <c r="E15" s="7">
         <f>IF(OR(D15=0,D15=""),"",IF(C15&lt;&gt;"",VLOOKUP(C15,联合产品页!$B$2:$C$25540,2,FALSE),0)*D15)</f>
-        <v>0.726872246696035</v>
+        <v>0.72687224669603523</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>11</v>
@@ -4526,7 +3917,7 @@
       </c>
       <c r="H15" s="7">
         <f>IF(OR(G15=0,G15=""),"",IF(F15&lt;&gt;"",VLOOKUP(F15,联合产品页!$B$2:$C$25540,2,FALSE),0)*G15)</f>
-        <v>0.548458149779736</v>
+        <v>0.54845814977973573</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>15</v>
@@ -4556,7 +3947,7 @@
       </c>
       <c r="Q15" s="7">
         <f>IF(OR(P15=0,P15=""),"",IF(O15&lt;&gt;"",VLOOKUP(O15,联合产品页!$B$2:$C$25540,2,FALSE),0)*P15)</f>
-        <v>0.0575</v>
+        <v>5.7499999999999996E-2</v>
       </c>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
@@ -4589,13 +3980,13 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
-        <v>3.55025987734301</v>
+        <v>3.5502598773430076</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>13</v>
@@ -4605,7 +3996,7 @@
       </c>
       <c r="E16" s="7">
         <f>IF(OR(D16=0,D16=""),"",IF(C16&lt;&gt;"",VLOOKUP(C16,联合产品页!$B$2:$C$25540,2,FALSE),0)*D16)</f>
-        <v>0.487004405286344</v>
+        <v>0.48700440528634359</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>56</v>
@@ -4615,7 +4006,7 @@
       </c>
       <c r="H16" s="7">
         <f>IF(OR(G16=0,G16=""),"",IF(F16&lt;&gt;"",VLOOKUP(F16,联合产品页!$B$2:$C$25540,2,FALSE),0)*G16)</f>
-        <v>0.425</v>
+        <v>0.42500000000000004</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>59</v>
@@ -4625,7 +4016,7 @@
       </c>
       <c r="K16" s="7">
         <f>IF(OR(J16=0,J16=""),"",IF(I16&lt;&gt;"",VLOOKUP(I16,联合产品页!$B$2:$C$25540,2,FALSE),0)*J16)</f>
-        <v>2.1078431372549</v>
+        <v>2.107843137254902</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>11</v>
@@ -4635,7 +4026,7 @@
       </c>
       <c r="N16" s="7">
         <f>IF(OR(M16=0,M16=""),"",IF(L16&lt;&gt;"",VLOOKUP(L16,联合产品页!$B$2:$C$25540,2,FALSE),0)*M16)</f>
-        <v>0.493612334801762</v>
+        <v>0.49361233480176214</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>16</v>
@@ -4645,7 +4036,7 @@
       </c>
       <c r="Q16" s="7">
         <f>IF(OR(P16=0,P16=""),"",IF(O16&lt;&gt;"",VLOOKUP(O16,联合产品页!$B$2:$C$25540,2,FALSE),0)*P16)</f>
-        <v>0.0368</v>
+        <v>3.6799999999999999E-2</v>
       </c>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
@@ -4678,13 +4069,13 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B17" s="5">
         <f t="shared" si="0"/>
-        <v>51.4558516886931</v>
+        <v>51.455851688693102</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>60</v>
@@ -4704,7 +4095,7 @@
       </c>
       <c r="H17" s="7">
         <f>IF(OR(G17=0,G17=""),"",IF(F17&lt;&gt;"",VLOOKUP(F17,联合产品页!$B$2:$C$25540,2,FALSE),0)*G17)</f>
-        <v>1.4</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>13</v>
@@ -4714,7 +4105,7 @@
       </c>
       <c r="K17" s="7">
         <f>IF(OR(J17=0,J17=""),"",IF(I17&lt;&gt;"",VLOOKUP(I17,联合产品页!$B$2:$C$25540,2,FALSE),0)*J17)</f>
-        <v>0.654185022026432</v>
+        <v>0.6541850220264317</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>35</v>
@@ -4734,7 +4125,7 @@
       </c>
       <c r="Q17" s="7">
         <f>IF(OR(P17=0,P17=""),"",IF(O17&lt;&gt;"",VLOOKUP(O17,联合产品页!$B$2:$C$25540,2,FALSE),0)*P17)</f>
-        <v>0.0733333333333333</v>
+        <v>7.3333333333333334E-2</v>
       </c>
       <c r="R17" s="4" t="s">
         <v>24</v>
@@ -4764,7 +4155,7 @@
       </c>
       <c r="Z17" s="7">
         <f>IF(OR(Y17=0,Y17=""),"",IF(X17&lt;&gt;"",VLOOKUP(X17,联合产品页!$B$2:$C$25540,2,FALSE),0)*Y17)</f>
-        <v>0.373333333333333</v>
+        <v>0.37333333333333335</v>
       </c>
       <c r="AA17" s="4" t="s">
         <v>35</v>
@@ -4784,16 +4175,16 @@
       </c>
       <c r="AF17" s="7">
         <f>IF(OR(AE17=0,AE17=""),"",IF(AD17&lt;&gt;"",VLOOKUP(AD17,联合产品页!$B$2:$C$25540,2,FALSE),0)*AE17)</f>
-        <v>0.115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32">
+        <v>0.11499999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B18" s="5">
         <f t="shared" si="0"/>
-        <v>30.6316417033774</v>
+        <v>30.63164170337739</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>29</v>
@@ -4813,7 +4204,7 @@
       </c>
       <c r="H18" s="7">
         <f>IF(OR(G18=0,G18=""),"",IF(F18&lt;&gt;"",VLOOKUP(F18,联合产品页!$B$2:$C$25540,2,FALSE),0)*G18)</f>
-        <v>10.2</v>
+        <v>10.200000000000001</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>15</v>
@@ -4843,7 +4234,7 @@
       </c>
       <c r="Q18" s="7">
         <f>IF(OR(P18=0,P18=""),"",IF(O18&lt;&gt;"",VLOOKUP(O18,联合产品页!$B$2:$C$25540,2,FALSE),0)*P18)</f>
-        <v>1.09030837004405</v>
+        <v>1.0903083700440528</v>
       </c>
       <c r="R18" s="4" t="s">
         <v>16</v>
@@ -4853,7 +4244,7 @@
       </c>
       <c r="T18" s="7">
         <f>IF(OR(S18=0,S18=""),"",IF(R18&lt;&gt;"",VLOOKUP(R18,联合产品页!$B$2:$C$25540,2,FALSE),0)*S18)</f>
-        <v>0.023</v>
+        <v>2.3E-2</v>
       </c>
       <c r="U18" s="4" t="s">
         <v>14</v>
@@ -4863,7 +4254,7 @@
       </c>
       <c r="W18" s="7">
         <f>IF(OR(V18=0,V18=""),"",IF(U18&lt;&gt;"",VLOOKUP(U18,联合产品页!$B$2:$C$25540,2,FALSE),0)*V18)</f>
-        <v>0.325</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="X18" s="4" t="s">
         <v>10</v>
@@ -4873,7 +4264,7 @@
       </c>
       <c r="Z18" s="7">
         <f>IF(OR(Y18=0,Y18=""),"",IF(X18&lt;&gt;"",VLOOKUP(X18,联合产品页!$B$2:$C$25540,2,FALSE),0)*Y18)</f>
-        <v>0.933333333333333</v>
+        <v>0.93333333333333346</v>
       </c>
       <c r="AA18" s="4" t="s">
         <v>62</v>
@@ -4883,7 +4274,7 @@
       </c>
       <c r="AC18" s="7">
         <f>IF(OR(AB18=0,AB18=""),"",IF(AA18&lt;&gt;"",VLOOKUP(AA18,联合产品页!$B$2:$C$25540,2,FALSE),0)*AB18)</f>
-        <v>3.6</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
@@ -4892,13 +4283,13 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B19" s="5">
         <f t="shared" si="0"/>
-        <v>8.75520558002937</v>
+        <v>8.7552055800293687</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>13</v>
@@ -4908,7 +4299,7 @@
       </c>
       <c r="E19" s="7">
         <f>IF(OR(D19=0,D19=""),"",IF(C19&lt;&gt;"",VLOOKUP(C19,联合产品页!$B$2:$C$25540,2,FALSE),0)*D19)</f>
-        <v>0.726872246696035</v>
+        <v>0.72687224669603523</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>19</v>
@@ -4928,7 +4319,7 @@
       </c>
       <c r="K19" s="7">
         <f>IF(OR(J19=0,J19=""),"",IF(I19&lt;&gt;"",VLOOKUP(I19,联合产品页!$B$2:$C$25540,2,FALSE),0)*J19)</f>
-        <v>0.933333333333333</v>
+        <v>0.93333333333333346</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>16</v>
@@ -4938,7 +4329,7 @@
       </c>
       <c r="N19" s="7">
         <f>IF(OR(M19=0,M19=""),"",IF(L19&lt;&gt;"",VLOOKUP(L19,联合产品页!$B$2:$C$25540,2,FALSE),0)*M19)</f>
-        <v>0.115</v>
+        <v>0.11499999999999999</v>
       </c>
       <c r="O19" s="4" t="s">
         <v>5</v>
@@ -4989,13 +4380,13 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B20" s="5">
         <f t="shared" si="0"/>
-        <v>6.14095238095238</v>
+        <v>6.1409523809523812</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>63</v>
@@ -5005,7 +4396,7 @@
       </c>
       <c r="E20" s="7">
         <f>IF(OR(D20=0,D20=""),"",IF(C20&lt;&gt;"",VLOOKUP(C20,联合产品页!$B$2:$C$25540,2,FALSE),0)*D20)</f>
-        <v>3.71428571428571</v>
+        <v>3.714285714285714</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>10</v>
@@ -5015,7 +4406,7 @@
       </c>
       <c r="H20" s="7">
         <f>IF(OR(G20=0,G20=""),"",IF(F20&lt;&gt;"",VLOOKUP(F20,联合产品页!$B$2:$C$25540,2,FALSE),0)*G20)</f>
-        <v>2.42666666666667</v>
+        <v>2.4266666666666667</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -5066,13 +4457,13 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B21" s="5">
         <f t="shared" si="0"/>
-        <v>3.74952380952381</v>
+        <v>3.7495238095238097</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>10</v>
@@ -5082,7 +4473,7 @@
       </c>
       <c r="E21" s="7">
         <f>IF(OR(D21=0,D21=""),"",IF(C21&lt;&gt;"",VLOOKUP(C21,联合产品页!$B$2:$C$25540,2,FALSE),0)*D21)</f>
-        <v>0.233333333333333</v>
+        <v>0.23333333333333336</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>63</v>
@@ -5092,7 +4483,7 @@
       </c>
       <c r="H21" s="7">
         <f>IF(OR(G21=0,G21=""),"",IF(F21&lt;&gt;"",VLOOKUP(F21,联合产品页!$B$2:$C$25540,2,FALSE),0)*G21)</f>
-        <v>2.14285714285714</v>
+        <v>2.1428571428571428</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>10</v>
@@ -5102,7 +4493,7 @@
       </c>
       <c r="K21" s="7">
         <f>IF(OR(J21=0,J21=""),"",IF(I21&lt;&gt;"",VLOOKUP(I21,联合产品页!$B$2:$C$25540,2,FALSE),0)*J21)</f>
-        <v>1.21333333333333</v>
+        <v>1.2133333333333334</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>58</v>
@@ -5151,13 +4542,13 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B22" s="5">
         <f t="shared" si="0"/>
-        <v>20.9414977973568</v>
+        <v>20.941497797356828</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>33</v>
@@ -5187,7 +4578,7 @@
       </c>
       <c r="K22" s="7">
         <f>IF(OR(J22=0,J22=""),"",IF(I22&lt;&gt;"",VLOOKUP(I22,联合产品页!$B$2:$C$25540,2,FALSE),0)*J22)</f>
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>13</v>
@@ -5197,7 +4588,7 @@
       </c>
       <c r="N22" s="7">
         <f>IF(OR(M22=0,M22=""),"",IF(L22&lt;&gt;"",VLOOKUP(L22,联合产品页!$B$2:$C$25540,2,FALSE),0)*M22)</f>
-        <v>0.581497797356828</v>
+        <v>0.58149779735682816</v>
       </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -5236,13 +4627,13 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B23" s="5">
         <f t="shared" si="0"/>
-        <v>30.4081938325991</v>
+        <v>30.408193832599117</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>64</v>
@@ -5262,7 +4653,7 @@
       </c>
       <c r="H23" s="7">
         <f>IF(OR(G23=0,G23=""),"",IF(F23&lt;&gt;"",VLOOKUP(F23,联合产品页!$B$2:$C$25540,2,FALSE),0)*G23)</f>
-        <v>16.28</v>
+        <v>16.279999999999998</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>11</v>
@@ -5272,7 +4663,7 @@
       </c>
       <c r="K23" s="7">
         <f>IF(OR(J23=0,J23=""),"",IF(I23&lt;&gt;"",VLOOKUP(I23,联合产品页!$B$2:$C$25540,2,FALSE),0)*J23)</f>
-        <v>1.82819383259912</v>
+        <v>1.8281938325991189</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>31</v>
@@ -5282,7 +4673,7 @@
       </c>
       <c r="N23" s="7">
         <f>IF(OR(M23=0,M23=""),"",IF(L23&lt;&gt;"",VLOOKUP(L23,联合产品页!$B$2:$C$25540,2,FALSE),0)*M23)</f>
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="O23" s="4" t="s">
         <v>38</v>
@@ -5292,7 +4683,7 @@
       </c>
       <c r="Q23" s="7">
         <f>IF(OR(P23=0,P23=""),"",IF(O23&lt;&gt;"",VLOOKUP(O23,联合产品页!$B$2:$C$25540,2,FALSE),0)*P23)</f>
-        <v>2.7</v>
+        <v>2.6999999999999997</v>
       </c>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
@@ -5325,13 +4716,13 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B24" s="5">
         <f t="shared" si="0"/>
-        <v>13.8196622613803</v>
+        <v>13.819662261380323</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>15</v>
@@ -5351,7 +4742,7 @@
       </c>
       <c r="H24" s="7">
         <f>IF(OR(G24=0,G24=""),"",IF(F24&lt;&gt;"",VLOOKUP(F24,联合产品页!$B$2:$C$25540,2,FALSE),0)*G24)</f>
-        <v>1.49333333333333</v>
+        <v>1.4933333333333334</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>13</v>
@@ -5361,7 +4752,7 @@
       </c>
       <c r="K24" s="7">
         <f>IF(OR(J24=0,J24=""),"",IF(I24&lt;&gt;"",VLOOKUP(I24,联合产品页!$B$2:$C$25540,2,FALSE),0)*J24)</f>
-        <v>1.16299559471366</v>
+        <v>1.1629955947136563</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>14</v>
@@ -5371,7 +4762,7 @@
       </c>
       <c r="N24" s="7">
         <f>IF(OR(M24=0,M24=""),"",IF(L24&lt;&gt;"",VLOOKUP(L24,联合产品页!$B$2:$C$25540,2,FALSE),0)*M24)</f>
-        <v>1.08333333333333</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="O24" s="4" t="s">
         <v>5</v>
@@ -5414,13 +4805,13 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B25" s="5">
         <f t="shared" si="0"/>
-        <v>12.4490748898678</v>
+        <v>12.449074889867841</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>7</v>
@@ -5430,7 +4821,7 @@
       </c>
       <c r="E25" s="7">
         <f>IF(OR(D25=0,D25=""),"",IF(C25&lt;&gt;"",VLOOKUP(C25,联合产品页!$B$2:$C$25540,2,FALSE),0)*D25)</f>
-        <v>8.8</v>
+        <v>8.7999999999999989</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>66</v>
@@ -5440,7 +4831,7 @@
       </c>
       <c r="H25" s="7">
         <f>IF(OR(G25=0,G25=""),"",IF(F25&lt;&gt;"",VLOOKUP(F25,联合产品页!$B$2:$C$25540,2,FALSE),0)*G25)</f>
-        <v>3.32</v>
+        <v>3.3200000000000003</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>11</v>
@@ -5450,7 +4841,7 @@
       </c>
       <c r="K25" s="7">
         <f>IF(OR(J25=0,J25=""),"",IF(I25&lt;&gt;"",VLOOKUP(I25,联合产品页!$B$2:$C$25540,2,FALSE),0)*J25)</f>
-        <v>0.329074889867841</v>
+        <v>0.32907488986784139</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
@@ -5495,13 +4886,13 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B26" s="5">
         <f t="shared" si="0"/>
-        <v>12.7434008810573</v>
+        <v>12.743400881057267</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>10</v>
@@ -5511,7 +4902,7 @@
       </c>
       <c r="E26" s="7">
         <f>IF(OR(D26=0,D26=""),"",IF(C26&lt;&gt;"",VLOOKUP(C26,联合产品页!$B$2:$C$25540,2,FALSE),0)*D26)</f>
-        <v>0.224</v>
+        <v>0.22400000000000003</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>58</v>
@@ -5521,7 +4912,7 @@
       </c>
       <c r="H26" s="7">
         <f>IF(OR(G26=0,G26=""),"",IF(F26&lt;&gt;"",VLOOKUP(F26,联合产品页!$B$2:$C$25540,2,FALSE),0)*G26)</f>
-        <v>0.032</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>7</v>
@@ -5531,7 +4922,7 @@
       </c>
       <c r="K26" s="7">
         <f>IF(OR(J26=0,J26=""),"",IF(I26&lt;&gt;"",VLOOKUP(I26,联合产品页!$B$2:$C$25540,2,FALSE),0)*J26)</f>
-        <v>11.22</v>
+        <v>11.219999999999999</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>65</v>
@@ -5541,7 +4932,7 @@
       </c>
       <c r="N26" s="7">
         <f>IF(OR(M26=0,M26=""),"",IF(L26&lt;&gt;"",VLOOKUP(L26,联合产品页!$B$2:$C$25540,2,FALSE),0)*M26)</f>
-        <v>1.16740088105727</v>
+        <v>1.1674008810572687</v>
       </c>
       <c r="O26" s="4" t="s">
         <v>64</v>
@@ -5584,13 +4975,13 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B27" s="5">
         <f t="shared" si="0"/>
-        <v>16.2693333333333</v>
+        <v>16.269333333333332</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>30</v>
@@ -5600,7 +4991,7 @@
       </c>
       <c r="E27" s="7">
         <f>IF(OR(D27=0,D27=""),"",IF(C27&lt;&gt;"",VLOOKUP(C27,联合产品页!$B$2:$C$25540,2,FALSE),0)*D27)</f>
-        <v>2.53333333333333</v>
+        <v>2.5333333333333337</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>22</v>
@@ -5630,7 +5021,7 @@
       </c>
       <c r="N27" s="7">
         <f>IF(OR(M27=0,M27=""),"",IF(L27&lt;&gt;"",VLOOKUP(L27,联合产品页!$B$2:$C$25540,2,FALSE),0)*M27)</f>
-        <v>0.056</v>
+        <v>5.6000000000000008E-2</v>
       </c>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
@@ -5669,7 +5060,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>111</v>
       </c>
@@ -5685,7 +5076,7 @@
       </c>
       <c r="E28" s="7">
         <f>IF(OR(D28=0,D28=""),"",IF(C28&lt;&gt;"",VLOOKUP(C28,联合产品页!$B$2:$C$25540,2,FALSE),0)*D28)</f>
-        <v>6.3168</v>
+        <v>6.3168000000000006</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>10</v>
@@ -5695,7 +5086,7 @@
       </c>
       <c r="H28" s="7">
         <f>IF(OR(G28=0,G28=""),"",IF(F28&lt;&gt;"",VLOOKUP(F28,联合产品页!$B$2:$C$25540,2,FALSE),0)*G28)</f>
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>7</v>
@@ -5705,7 +5096,7 @@
       </c>
       <c r="K28" s="7">
         <f>IF(OR(J28=0,J28=""),"",IF(I28&lt;&gt;"",VLOOKUP(I28,联合产品页!$B$2:$C$25540,2,FALSE),0)*J28)</f>
-        <v>6.16</v>
+        <v>6.1599999999999993</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
@@ -5750,13 +5141,13 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B29" s="5">
         <f t="shared" si="0"/>
-        <v>12.6176666666667</v>
+        <v>12.617666666666667</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>15</v>
@@ -5776,7 +5167,7 @@
       </c>
       <c r="H29" s="7">
         <f>IF(OR(G29=0,G29=""),"",IF(F29&lt;&gt;"",VLOOKUP(F29,联合产品页!$B$2:$C$25540,2,FALSE),0)*G29)</f>
-        <v>0.242666666666667</v>
+        <v>0.2426666666666667</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>66</v>
@@ -5786,7 +5177,7 @@
       </c>
       <c r="K29" s="7">
         <f>IF(OR(J29=0,J29=""),"",IF(I29&lt;&gt;"",VLOOKUP(I29,联合产品页!$B$2:$C$25540,2,FALSE),0)*J29)</f>
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>64</v>
@@ -5806,7 +5197,7 @@
       </c>
       <c r="Q29" s="7">
         <f>IF(OR(P29=0,P29=""),"",IF(O29&lt;&gt;"",VLOOKUP(O29,联合产品页!$B$2:$C$25540,2,FALSE),0)*P29)</f>
-        <v>0.165</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="R29" s="4" t="s">
         <v>7</v>
@@ -5843,13 +5234,13 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B30" s="5">
         <f t="shared" si="0"/>
-        <v>7.57158002936858</v>
+        <v>7.5715800293685769</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>5</v>
@@ -5869,7 +5260,7 @@
       </c>
       <c r="H30" s="7">
         <f>IF(OR(G30=0,G30=""),"",IF(F30&lt;&gt;"",VLOOKUP(F30,联合产品页!$B$2:$C$25540,2,FALSE),0)*G30)</f>
-        <v>0.933333333333333</v>
+        <v>0.93333333333333346</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>15</v>
@@ -5889,7 +5280,7 @@
       </c>
       <c r="N30" s="7">
         <f>IF(OR(M30=0,M30=""),"",IF(L30&lt;&gt;"",VLOOKUP(L30,联合产品页!$B$2:$C$25540,2,FALSE),0)*M30)</f>
-        <v>0.872246696035242</v>
+        <v>0.8722466960352423</v>
       </c>
       <c r="O30" s="4" t="s">
         <v>16</v>
@@ -5899,7 +5290,7 @@
       </c>
       <c r="Q30" s="7">
         <f>IF(OR(P30=0,P30=""),"",IF(O30&lt;&gt;"",VLOOKUP(O30,联合产品页!$B$2:$C$25540,2,FALSE),0)*P30)</f>
-        <v>0.046</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
@@ -5932,13 +5323,13 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B31" s="5">
         <f t="shared" si="0"/>
-        <v>5.28733333333333</v>
+        <v>5.2873333333333337</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>29</v>
@@ -5948,7 +5339,7 @@
       </c>
       <c r="E31" s="7">
         <f>IF(OR(D31=0,D31=""),"",IF(C31&lt;&gt;"",VLOOKUP(C31,联合产品页!$B$2:$C$25540,2,FALSE),0)*D31)</f>
-        <v>1.58333333333333</v>
+        <v>1.5833333333333335</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>7</v>
@@ -5958,7 +5349,7 @@
       </c>
       <c r="H31" s="7">
         <f>IF(OR(G31=0,G31=""),"",IF(F31&lt;&gt;"",VLOOKUP(F31,联合产品页!$B$2:$C$25540,2,FALSE),0)*G31)</f>
-        <v>1.1</v>
+        <v>1.0999999999999999</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>67</v>
@@ -5978,7 +5369,7 @@
       </c>
       <c r="N31" s="7">
         <f>IF(OR(M31=0,M31=""),"",IF(L31&lt;&gt;"",VLOOKUP(L31,联合产品页!$B$2:$C$25540,2,FALSE),0)*M31)</f>
-        <v>1.404</v>
+        <v>1.4039999999999999</v>
       </c>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
@@ -6017,7 +5408,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:32">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="5" t="str">
         <f t="shared" si="0"/>
@@ -6084,7 +5475,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:32">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="5" t="str">
         <f t="shared" si="0"/>
@@ -6151,7 +5542,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:32">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="5" t="str">
         <f t="shared" si="0"/>
@@ -6218,7 +5609,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:32">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="5" t="str">
         <f t="shared" si="0"/>
@@ -6285,7 +5676,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:32">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="5" t="str">
         <f t="shared" si="0"/>
@@ -6352,7 +5743,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:32">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="5" t="str">
         <f t="shared" si="0"/>
@@ -6419,7 +5810,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:32">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="5" t="str">
         <f t="shared" si="0"/>
@@ -6486,7 +5877,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:32">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="5" t="str">
         <f t="shared" si="0"/>
@@ -6553,7 +5944,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:32">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="5" t="str">
         <f t="shared" si="0"/>
@@ -6620,7 +6011,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:32">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="5" t="str">
         <f t="shared" si="0"/>
@@ -6687,7 +6078,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:32">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="5" t="str">
         <f t="shared" si="0"/>
@@ -6754,7 +6145,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:32">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="5" t="str">
         <f t="shared" si="0"/>
@@ -6821,7 +6212,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:32">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="5" t="str">
         <f t="shared" si="0"/>
@@ -6888,7 +6279,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:32">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="5" t="str">
         <f t="shared" si="0"/>
@@ -6955,7 +6346,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:32">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7022,7 +6413,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:32">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7089,7 +6480,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:32">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7156,7 +6547,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:32">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7223,7 +6614,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:32">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7291,42 +6682,48 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C50 F2:F50 I2:I50 L2:L50 O2:O50 R2:R50 U2:U50 X2:X50 AA2:AA50 AD2:AD50">
-      <formula1>原材料!$A$2:$A$25535</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>原材料!$A$2:$A$25535</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C50 F2:F50 I2:I50 L2:L50 O2:O50 R2:R50 U2:U50 X2:X50 AA2:AA50 AD2:AD50</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B44"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.4444444444444" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="25.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.2222222222222" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.88888888888889" style="1"/>
-    <col min="9" max="9" width="17.1111111111111" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8.88888888888889" style="1"/>
+    <col min="6" max="6" width="17.25" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.875" style="1"/>
+    <col min="9" max="9" width="17.125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.875" style="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="32" width="8.88888888888889" style="1" customWidth="1"/>
-    <col min="33" max="33" width="12.8888888888889"/>
+    <col min="13" max="32" width="8.875" style="1" customWidth="1"/>
+    <col min="33" max="33" width="12.875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>71</v>
       </c>
@@ -7424,13 +6821,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B2" s="5">
         <f>IF(IF(E2&lt;&gt;"",E2,0)+IF(H2&lt;&gt;"",H2,0)+IF(K2&lt;&gt;"",K2,0)+IF(N2&lt;&gt;"",N2,0)+IF(Q2&lt;&gt;"",Q2,0)+IF(T2&lt;&gt;"",T2,0)+IF(W2&lt;&gt;"",W2,0)+IF(Z2&lt;&gt;"",Z2,0)+IF(AC2&lt;&gt;"",AC2,0)+IF(AF2&lt;&gt;"",AF2,0)&lt;&gt;0,IF(E2&lt;&gt;"",E2,0)+IF(H2&lt;&gt;"",H2,0)+IF(K2&lt;&gt;"",K2,0)+IF(N2&lt;&gt;"",N2,0)+IF(Q2&lt;&gt;"",Q2,0)+IF(T2&lt;&gt;"",T2,0)+IF(W2&lt;&gt;"",W2,0)+IF(Z2&lt;&gt;"",Z2,0)+IF(AC2&lt;&gt;"",AC2,0)+IF(AF2&lt;&gt;"",AF2,0),"")</f>
-        <v>28.545356681351</v>
+        <v>28.545356681350956</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>86</v>
@@ -7440,7 +6837,7 @@
       </c>
       <c r="E2" s="6">
         <f>IF(OR(D2=0,D2=""),"",IF(C2&lt;&gt;"",VLOOKUP(C2,联合产品页!$B$2:$C$25540,2,FALSE),0)*D2)</f>
-        <v>4.40695668135096</v>
+        <v>4.4069566813509553</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>8</v>
@@ -7505,13 +6902,13 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B3" s="5">
         <f t="shared" ref="B3:B44" si="0">IF(IF(E3&lt;&gt;"",E3,0)+IF(H3&lt;&gt;"",H3,0)+IF(K3&lt;&gt;"",K3,0)+IF(N3&lt;&gt;"",N3,0)+IF(Q3&lt;&gt;"",Q3,0)+IF(T3&lt;&gt;"",T3,0)+IF(W3&lt;&gt;"",W3,0)+IF(Z3&lt;&gt;"",Z3,0)+IF(AC3&lt;&gt;"",AC3,0)+IF(AF3&lt;&gt;"",AF3,0)&lt;&gt;0,IF(E3&lt;&gt;"",E3,0)+IF(H3&lt;&gt;"",H3,0)+IF(K3&lt;&gt;"",K3,0)+IF(N3&lt;&gt;"",N3,0)+IF(Q3&lt;&gt;"",Q3,0)+IF(T3&lt;&gt;"",T3,0)+IF(W3&lt;&gt;"",W3,0)+IF(Z3&lt;&gt;"",Z3,0)+IF(AC3&lt;&gt;"",AC3,0)+IF(AF3&lt;&gt;"",AF3,0),"")</f>
-        <v>4.90246696035242</v>
+        <v>4.9024669603524238</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>91</v>
@@ -7521,7 +6918,7 @@
       </c>
       <c r="E3" s="6">
         <f>IF(OR(D3=0,D3=""),"",IF(C3&lt;&gt;"",VLOOKUP(C3,联合产品页!$B$2:$C$25540,2,FALSE),0)*D3)</f>
-        <v>4.90246696035242</v>
+        <v>4.9024669603524238</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -7578,13 +6975,13 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B4" s="5">
         <f t="shared" si="0"/>
-        <v>44.2278560939794</v>
+        <v>44.22785609397944</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>106</v>
@@ -7594,7 +6991,7 @@
       </c>
       <c r="E4" s="6">
         <f>IF(OR(D4=0,D4=""),"",IF(C4&lt;&gt;"",VLOOKUP(C4,联合产品页!$B$2:$C$25540,2,FALSE),0)*D4)</f>
-        <v>30.4081938325991</v>
+        <v>30.408193832599117</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>107</v>
@@ -7604,7 +7001,7 @@
       </c>
       <c r="H4" s="6">
         <f>IF(OR(G4=0,G4=""),"",IF(F4&lt;&gt;"",VLOOKUP(F4,联合产品页!$B$2:$C$25540,2,FALSE),0)*G4)</f>
-        <v>13.8196622613803</v>
+        <v>13.819662261380323</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -7655,13 +7052,13 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" si="0"/>
-        <v>11.9133333333333</v>
+        <v>11.913333333333334</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>95</v>
@@ -7671,7 +7068,7 @@
       </c>
       <c r="E5" s="6">
         <f>IF(OR(D5=0,D5=""),"",IF(C5&lt;&gt;"",VLOOKUP(C5,联合产品页!$B$2:$C$25540,2,FALSE),0)*D5)</f>
-        <v>6.63333333333333</v>
+        <v>6.6333333333333337</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>7</v>
@@ -7681,7 +7078,7 @@
       </c>
       <c r="H5" s="6">
         <f>IF(OR(G5=0,G5=""),"",IF(F5&lt;&gt;"",VLOOKUP(F5,联合产品页!$B$2:$C$25540,2,FALSE),0)*G5)</f>
-        <v>5.28</v>
+        <v>5.2799999999999994</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -7732,13 +7129,13 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
-        <v>21.9839133627019</v>
+        <v>21.983913362701912</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>113</v>
@@ -7748,7 +7145,7 @@
       </c>
       <c r="E6" s="6">
         <f>IF(OR(D6=0,D6=""),"",IF(C6&lt;&gt;"",VLOOKUP(C6,联合产品页!$B$2:$C$25540,2,FALSE),0)*D6)</f>
-        <v>7.57158002936858</v>
+        <v>7.5715800293685769</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>114</v>
@@ -7758,7 +7155,7 @@
       </c>
       <c r="H6" s="6">
         <f>IF(OR(G6=0,G6=""),"",IF(F6&lt;&gt;"",VLOOKUP(F6,联合产品页!$B$2:$C$25540,2,FALSE),0)*G6)</f>
-        <v>5.28733333333333</v>
+        <v>5.2873333333333337</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>27</v>
@@ -7813,13 +7210,13 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
-        <v>42.3815822320117</v>
+        <v>42.381582232011745</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>89</v>
@@ -7829,7 +7226,7 @@
       </c>
       <c r="E7" s="6">
         <f>IF(OR(D7=0,D7=""),"",IF(C7&lt;&gt;"",VLOOKUP(C7,联合产品页!$B$2:$C$25540,2,FALSE),0)*D7)</f>
-        <v>4.20824889867841</v>
+        <v>4.2082488986784146</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>7</v>
@@ -7839,7 +7236,7 @@
       </c>
       <c r="H7" s="6">
         <f>IF(OR(G7=0,G7=""),"",IF(F7&lt;&gt;"",VLOOKUP(F7,联合产品页!$B$2:$C$25540,2,FALSE),0)*G7)</f>
-        <v>19.8</v>
+        <v>19.799999999999997</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>10</v>
@@ -7849,7 +7246,7 @@
       </c>
       <c r="K7" s="6">
         <f>IF(OR(J7=0,J7=""),"",IF(I7&lt;&gt;"",VLOOKUP(I7,联合产品页!$B$2:$C$25540,2,FALSE),0)*J7)</f>
-        <v>0.373333333333333</v>
+        <v>0.37333333333333335</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>70</v>
@@ -7898,7 +7295,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7959,7 +7356,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8026,7 +7423,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8093,7 +7490,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8160,7 +7557,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8227,7 +7624,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8294,7 +7691,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8361,7 +7758,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8428,7 +7825,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8495,7 +7892,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8562,7 +7959,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8629,7 +8026,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8696,7 +8093,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8763,7 +8160,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8830,7 +8227,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8897,7 +8294,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8964,7 +8361,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="5" t="str">
         <f t="shared" si="0"/>
@@ -9031,7 +8428,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="5" t="str">
         <f t="shared" si="0"/>
@@ -9098,7 +8495,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="5" t="str">
         <f t="shared" si="0"/>
@@ -9165,7 +8562,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="5" t="str">
         <f t="shared" si="0"/>
@@ -9232,7 +8629,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="5" t="str">
         <f t="shared" si="0"/>
@@ -9299,7 +8696,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="5" t="str">
         <f t="shared" si="0"/>
@@ -9366,7 +8763,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="5" t="str">
         <f t="shared" si="0"/>
@@ -9433,7 +8830,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="5" t="str">
         <f t="shared" si="0"/>
@@ -9500,7 +8897,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:32">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="5" t="str">
         <f t="shared" si="0"/>
@@ -9567,7 +8964,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:32">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="5" t="str">
         <f t="shared" si="0"/>
@@ -9634,7 +9031,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:32">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="5" t="str">
         <f t="shared" si="0"/>
@@ -9701,7 +9098,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:32">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="5" t="str">
         <f t="shared" si="0"/>
@@ -9768,7 +9165,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:32">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="5" t="str">
         <f t="shared" si="0"/>
@@ -9835,7 +9232,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:32">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="5" t="str">
         <f t="shared" si="0"/>
@@ -9902,7 +9299,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:32">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="5" t="str">
         <f t="shared" si="0"/>
@@ -9969,7 +9366,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:32">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="5" t="str">
         <f t="shared" si="0"/>
@@ -10036,7 +9433,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:32">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="5" t="str">
         <f t="shared" si="0"/>
@@ -10103,7 +9500,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:32">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="5" t="str">
         <f t="shared" si="0"/>
@@ -10170,7 +9567,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:32">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="5" t="str">
         <f t="shared" si="0"/>
@@ -10237,7 +9634,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:32">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="5" t="str">
         <f t="shared" si="0"/>
@@ -10304,7 +9701,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:32">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="5" t="str">
         <f t="shared" si="0"/>
@@ -10371,10 +9768,10 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:32">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="5" t="str">
-        <f>IF(IF(E45&lt;&gt;"",E45,0)+IF(H45&lt;&gt;"",E45,0)+IF(K45&lt;&gt;"",E45,0)+IF(N45&lt;&gt;"",E45,0)+IF(Q45&lt;&gt;"",E45,0)+IF(T45&lt;&gt;"",E45,0)+IF(W45&lt;&gt;"",E45,0)+IF(Z45&lt;&gt;"",E45,0)+IF(AC45&lt;&gt;"",E45,0)+IF(AF45&lt;&gt;"",E45,0)&lt;&gt;0,IF(E45&lt;&gt;"",E45,0)+IF(H45&lt;&gt;"",E45,0)+IF(K45&lt;&gt;"",E45,0)+IF(N45&lt;&gt;"",E45,0)+IF(Q45&lt;&gt;"",E45,0)+IF(T45&lt;&gt;"",E45,0)+IF(W45&lt;&gt;"",E45,0)+IF(Z45&lt;&gt;"",E45,0)+IF(AC45&lt;&gt;"",E45,0)+IF(AF45&lt;&gt;"",E45,0),"")</f>
+        <f t="shared" ref="B45:B65" si="1">IF(IF(E45&lt;&gt;"",E45,0)+IF(H45&lt;&gt;"",E45,0)+IF(K45&lt;&gt;"",E45,0)+IF(N45&lt;&gt;"",E45,0)+IF(Q45&lt;&gt;"",E45,0)+IF(T45&lt;&gt;"",E45,0)+IF(W45&lt;&gt;"",E45,0)+IF(Z45&lt;&gt;"",E45,0)+IF(AC45&lt;&gt;"",E45,0)+IF(AF45&lt;&gt;"",E45,0)&lt;&gt;0,IF(E45&lt;&gt;"",E45,0)+IF(H45&lt;&gt;"",E45,0)+IF(K45&lt;&gt;"",E45,0)+IF(N45&lt;&gt;"",E45,0)+IF(Q45&lt;&gt;"",E45,0)+IF(T45&lt;&gt;"",E45,0)+IF(W45&lt;&gt;"",E45,0)+IF(Z45&lt;&gt;"",E45,0)+IF(AC45&lt;&gt;"",E45,0)+IF(AF45&lt;&gt;"",E45,0),"")</f>
         <v/>
       </c>
       <c r="C45" s="3"/>
@@ -10438,10 +9835,10 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:32">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="5" t="str">
-        <f>IF(IF(E46&lt;&gt;"",E46,0)+IF(H46&lt;&gt;"",E46,0)+IF(K46&lt;&gt;"",E46,0)+IF(N46&lt;&gt;"",E46,0)+IF(Q46&lt;&gt;"",E46,0)+IF(T46&lt;&gt;"",E46,0)+IF(W46&lt;&gt;"",E46,0)+IF(Z46&lt;&gt;"",E46,0)+IF(AC46&lt;&gt;"",E46,0)+IF(AF46&lt;&gt;"",E46,0)&lt;&gt;0,IF(E46&lt;&gt;"",E46,0)+IF(H46&lt;&gt;"",E46,0)+IF(K46&lt;&gt;"",E46,0)+IF(N46&lt;&gt;"",E46,0)+IF(Q46&lt;&gt;"",E46,0)+IF(T46&lt;&gt;"",E46,0)+IF(W46&lt;&gt;"",E46,0)+IF(Z46&lt;&gt;"",E46,0)+IF(AC46&lt;&gt;"",E46,0)+IF(AF46&lt;&gt;"",E46,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C46" s="3"/>
@@ -10505,10 +9902,10 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:32">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="5" t="str">
-        <f>IF(IF(E47&lt;&gt;"",E47,0)+IF(H47&lt;&gt;"",E47,0)+IF(K47&lt;&gt;"",E47,0)+IF(N47&lt;&gt;"",E47,0)+IF(Q47&lt;&gt;"",E47,0)+IF(T47&lt;&gt;"",E47,0)+IF(W47&lt;&gt;"",E47,0)+IF(Z47&lt;&gt;"",E47,0)+IF(AC47&lt;&gt;"",E47,0)+IF(AF47&lt;&gt;"",E47,0)&lt;&gt;0,IF(E47&lt;&gt;"",E47,0)+IF(H47&lt;&gt;"",E47,0)+IF(K47&lt;&gt;"",E47,0)+IF(N47&lt;&gt;"",E47,0)+IF(Q47&lt;&gt;"",E47,0)+IF(T47&lt;&gt;"",E47,0)+IF(W47&lt;&gt;"",E47,0)+IF(Z47&lt;&gt;"",E47,0)+IF(AC47&lt;&gt;"",E47,0)+IF(AF47&lt;&gt;"",E47,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C47" s="3"/>
@@ -10572,10 +9969,10 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:32">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="5" t="str">
-        <f>IF(IF(E48&lt;&gt;"",E48,0)+IF(H48&lt;&gt;"",E48,0)+IF(K48&lt;&gt;"",E48,0)+IF(N48&lt;&gt;"",E48,0)+IF(Q48&lt;&gt;"",E48,0)+IF(T48&lt;&gt;"",E48,0)+IF(W48&lt;&gt;"",E48,0)+IF(Z48&lt;&gt;"",E48,0)+IF(AC48&lt;&gt;"",E48,0)+IF(AF48&lt;&gt;"",E48,0)&lt;&gt;0,IF(E48&lt;&gt;"",E48,0)+IF(H48&lt;&gt;"",E48,0)+IF(K48&lt;&gt;"",E48,0)+IF(N48&lt;&gt;"",E48,0)+IF(Q48&lt;&gt;"",E48,0)+IF(T48&lt;&gt;"",E48,0)+IF(W48&lt;&gt;"",E48,0)+IF(Z48&lt;&gt;"",E48,0)+IF(AC48&lt;&gt;"",E48,0)+IF(AF48&lt;&gt;"",E48,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C48" s="3"/>
@@ -10639,10 +10036,10 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:32">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="5" t="str">
-        <f>IF(IF(E49&lt;&gt;"",E49,0)+IF(H49&lt;&gt;"",E49,0)+IF(K49&lt;&gt;"",E49,0)+IF(N49&lt;&gt;"",E49,0)+IF(Q49&lt;&gt;"",E49,0)+IF(T49&lt;&gt;"",E49,0)+IF(W49&lt;&gt;"",E49,0)+IF(Z49&lt;&gt;"",E49,0)+IF(AC49&lt;&gt;"",E49,0)+IF(AF49&lt;&gt;"",E49,0)&lt;&gt;0,IF(E49&lt;&gt;"",E49,0)+IF(H49&lt;&gt;"",E49,0)+IF(K49&lt;&gt;"",E49,0)+IF(N49&lt;&gt;"",E49,0)+IF(Q49&lt;&gt;"",E49,0)+IF(T49&lt;&gt;"",E49,0)+IF(W49&lt;&gt;"",E49,0)+IF(Z49&lt;&gt;"",E49,0)+IF(AC49&lt;&gt;"",E49,0)+IF(AF49&lt;&gt;"",E49,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C49" s="3"/>
@@ -10706,10 +10103,10 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:32">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="5" t="str">
-        <f>IF(IF(E50&lt;&gt;"",E50,0)+IF(H50&lt;&gt;"",E50,0)+IF(K50&lt;&gt;"",E50,0)+IF(N50&lt;&gt;"",E50,0)+IF(Q50&lt;&gt;"",E50,0)+IF(T50&lt;&gt;"",E50,0)+IF(W50&lt;&gt;"",E50,0)+IF(Z50&lt;&gt;"",E50,0)+IF(AC50&lt;&gt;"",E50,0)+IF(AF50&lt;&gt;"",E50,0)&lt;&gt;0,IF(E50&lt;&gt;"",E50,0)+IF(H50&lt;&gt;"",E50,0)+IF(K50&lt;&gt;"",E50,0)+IF(N50&lt;&gt;"",E50,0)+IF(Q50&lt;&gt;"",E50,0)+IF(T50&lt;&gt;"",E50,0)+IF(W50&lt;&gt;"",E50,0)+IF(Z50&lt;&gt;"",E50,0)+IF(AC50&lt;&gt;"",E50,0)+IF(AF50&lt;&gt;"",E50,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C50" s="3"/>
@@ -10773,10 +10170,10 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:32">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="5" t="str">
-        <f>IF(IF(E51&lt;&gt;"",E51,0)+IF(H51&lt;&gt;"",E51,0)+IF(K51&lt;&gt;"",E51,0)+IF(N51&lt;&gt;"",E51,0)+IF(Q51&lt;&gt;"",E51,0)+IF(T51&lt;&gt;"",E51,0)+IF(W51&lt;&gt;"",E51,0)+IF(Z51&lt;&gt;"",E51,0)+IF(AC51&lt;&gt;"",E51,0)+IF(AF51&lt;&gt;"",E51,0)&lt;&gt;0,IF(E51&lt;&gt;"",E51,0)+IF(H51&lt;&gt;"",E51,0)+IF(K51&lt;&gt;"",E51,0)+IF(N51&lt;&gt;"",E51,0)+IF(Q51&lt;&gt;"",E51,0)+IF(T51&lt;&gt;"",E51,0)+IF(W51&lt;&gt;"",E51,0)+IF(Z51&lt;&gt;"",E51,0)+IF(AC51&lt;&gt;"",E51,0)+IF(AF51&lt;&gt;"",E51,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C51" s="3"/>
@@ -10840,10 +10237,10 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:32">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="5" t="str">
-        <f>IF(IF(E52&lt;&gt;"",E52,0)+IF(H52&lt;&gt;"",E52,0)+IF(K52&lt;&gt;"",E52,0)+IF(N52&lt;&gt;"",E52,0)+IF(Q52&lt;&gt;"",E52,0)+IF(T52&lt;&gt;"",E52,0)+IF(W52&lt;&gt;"",E52,0)+IF(Z52&lt;&gt;"",E52,0)+IF(AC52&lt;&gt;"",E52,0)+IF(AF52&lt;&gt;"",E52,0)&lt;&gt;0,IF(E52&lt;&gt;"",E52,0)+IF(H52&lt;&gt;"",E52,0)+IF(K52&lt;&gt;"",E52,0)+IF(N52&lt;&gt;"",E52,0)+IF(Q52&lt;&gt;"",E52,0)+IF(T52&lt;&gt;"",E52,0)+IF(W52&lt;&gt;"",E52,0)+IF(Z52&lt;&gt;"",E52,0)+IF(AC52&lt;&gt;"",E52,0)+IF(AF52&lt;&gt;"",E52,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C52" s="3"/>
@@ -10907,10 +10304,10 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:32">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="5" t="str">
-        <f>IF(IF(E53&lt;&gt;"",E53,0)+IF(H53&lt;&gt;"",E53,0)+IF(K53&lt;&gt;"",E53,0)+IF(N53&lt;&gt;"",E53,0)+IF(Q53&lt;&gt;"",E53,0)+IF(T53&lt;&gt;"",E53,0)+IF(W53&lt;&gt;"",E53,0)+IF(Z53&lt;&gt;"",E53,0)+IF(AC53&lt;&gt;"",E53,0)+IF(AF53&lt;&gt;"",E53,0)&lt;&gt;0,IF(E53&lt;&gt;"",E53,0)+IF(H53&lt;&gt;"",E53,0)+IF(K53&lt;&gt;"",E53,0)+IF(N53&lt;&gt;"",E53,0)+IF(Q53&lt;&gt;"",E53,0)+IF(T53&lt;&gt;"",E53,0)+IF(W53&lt;&gt;"",E53,0)+IF(Z53&lt;&gt;"",E53,0)+IF(AC53&lt;&gt;"",E53,0)+IF(AF53&lt;&gt;"",E53,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C53" s="3"/>
@@ -10974,10 +10371,10 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:32">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="5" t="str">
-        <f>IF(IF(E54&lt;&gt;"",E54,0)+IF(H54&lt;&gt;"",E54,0)+IF(K54&lt;&gt;"",E54,0)+IF(N54&lt;&gt;"",E54,0)+IF(Q54&lt;&gt;"",E54,0)+IF(T54&lt;&gt;"",E54,0)+IF(W54&lt;&gt;"",E54,0)+IF(Z54&lt;&gt;"",E54,0)+IF(AC54&lt;&gt;"",E54,0)+IF(AF54&lt;&gt;"",E54,0)&lt;&gt;0,IF(E54&lt;&gt;"",E54,0)+IF(H54&lt;&gt;"",E54,0)+IF(K54&lt;&gt;"",E54,0)+IF(N54&lt;&gt;"",E54,0)+IF(Q54&lt;&gt;"",E54,0)+IF(T54&lt;&gt;"",E54,0)+IF(W54&lt;&gt;"",E54,0)+IF(Z54&lt;&gt;"",E54,0)+IF(AC54&lt;&gt;"",E54,0)+IF(AF54&lt;&gt;"",E54,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C54" s="3"/>
@@ -11041,10 +10438,10 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:32">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="5" t="str">
-        <f>IF(IF(E55&lt;&gt;"",E55,0)+IF(H55&lt;&gt;"",E55,0)+IF(K55&lt;&gt;"",E55,0)+IF(N55&lt;&gt;"",E55,0)+IF(Q55&lt;&gt;"",E55,0)+IF(T55&lt;&gt;"",E55,0)+IF(W55&lt;&gt;"",E55,0)+IF(Z55&lt;&gt;"",E55,0)+IF(AC55&lt;&gt;"",E55,0)+IF(AF55&lt;&gt;"",E55,0)&lt;&gt;0,IF(E55&lt;&gt;"",E55,0)+IF(H55&lt;&gt;"",E55,0)+IF(K55&lt;&gt;"",E55,0)+IF(N55&lt;&gt;"",E55,0)+IF(Q55&lt;&gt;"",E55,0)+IF(T55&lt;&gt;"",E55,0)+IF(W55&lt;&gt;"",E55,0)+IF(Z55&lt;&gt;"",E55,0)+IF(AC55&lt;&gt;"",E55,0)+IF(AF55&lt;&gt;"",E55,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C55" s="3"/>
@@ -11108,10 +10505,10 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:32">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="5" t="str">
-        <f>IF(IF(E56&lt;&gt;"",E56,0)+IF(H56&lt;&gt;"",E56,0)+IF(K56&lt;&gt;"",E56,0)+IF(N56&lt;&gt;"",E56,0)+IF(Q56&lt;&gt;"",E56,0)+IF(T56&lt;&gt;"",E56,0)+IF(W56&lt;&gt;"",E56,0)+IF(Z56&lt;&gt;"",E56,0)+IF(AC56&lt;&gt;"",E56,0)+IF(AF56&lt;&gt;"",E56,0)&lt;&gt;0,IF(E56&lt;&gt;"",E56,0)+IF(H56&lt;&gt;"",E56,0)+IF(K56&lt;&gt;"",E56,0)+IF(N56&lt;&gt;"",E56,0)+IF(Q56&lt;&gt;"",E56,0)+IF(T56&lt;&gt;"",E56,0)+IF(W56&lt;&gt;"",E56,0)+IF(Z56&lt;&gt;"",E56,0)+IF(AC56&lt;&gt;"",E56,0)+IF(AF56&lt;&gt;"",E56,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C56" s="3"/>
@@ -11175,10 +10572,10 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:32">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="5" t="str">
-        <f>IF(IF(E57&lt;&gt;"",E57,0)+IF(H57&lt;&gt;"",E57,0)+IF(K57&lt;&gt;"",E57,0)+IF(N57&lt;&gt;"",E57,0)+IF(Q57&lt;&gt;"",E57,0)+IF(T57&lt;&gt;"",E57,0)+IF(W57&lt;&gt;"",E57,0)+IF(Z57&lt;&gt;"",E57,0)+IF(AC57&lt;&gt;"",E57,0)+IF(AF57&lt;&gt;"",E57,0)&lt;&gt;0,IF(E57&lt;&gt;"",E57,0)+IF(H57&lt;&gt;"",E57,0)+IF(K57&lt;&gt;"",E57,0)+IF(N57&lt;&gt;"",E57,0)+IF(Q57&lt;&gt;"",E57,0)+IF(T57&lt;&gt;"",E57,0)+IF(W57&lt;&gt;"",E57,0)+IF(Z57&lt;&gt;"",E57,0)+IF(AC57&lt;&gt;"",E57,0)+IF(AF57&lt;&gt;"",E57,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C57" s="3"/>
@@ -11242,10 +10639,10 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:32">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="5" t="str">
-        <f>IF(IF(E58&lt;&gt;"",E58,0)+IF(H58&lt;&gt;"",E58,0)+IF(K58&lt;&gt;"",E58,0)+IF(N58&lt;&gt;"",E58,0)+IF(Q58&lt;&gt;"",E58,0)+IF(T58&lt;&gt;"",E58,0)+IF(W58&lt;&gt;"",E58,0)+IF(Z58&lt;&gt;"",E58,0)+IF(AC58&lt;&gt;"",E58,0)+IF(AF58&lt;&gt;"",E58,0)&lt;&gt;0,IF(E58&lt;&gt;"",E58,0)+IF(H58&lt;&gt;"",E58,0)+IF(K58&lt;&gt;"",E58,0)+IF(N58&lt;&gt;"",E58,0)+IF(Q58&lt;&gt;"",E58,0)+IF(T58&lt;&gt;"",E58,0)+IF(W58&lt;&gt;"",E58,0)+IF(Z58&lt;&gt;"",E58,0)+IF(AC58&lt;&gt;"",E58,0)+IF(AF58&lt;&gt;"",E58,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C58" s="3"/>
@@ -11309,10 +10706,10 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:32">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="5" t="str">
-        <f>IF(IF(E59&lt;&gt;"",E59,0)+IF(H59&lt;&gt;"",E59,0)+IF(K59&lt;&gt;"",E59,0)+IF(N59&lt;&gt;"",E59,0)+IF(Q59&lt;&gt;"",E59,0)+IF(T59&lt;&gt;"",E59,0)+IF(W59&lt;&gt;"",E59,0)+IF(Z59&lt;&gt;"",E59,0)+IF(AC59&lt;&gt;"",E59,0)+IF(AF59&lt;&gt;"",E59,0)&lt;&gt;0,IF(E59&lt;&gt;"",E59,0)+IF(H59&lt;&gt;"",E59,0)+IF(K59&lt;&gt;"",E59,0)+IF(N59&lt;&gt;"",E59,0)+IF(Q59&lt;&gt;"",E59,0)+IF(T59&lt;&gt;"",E59,0)+IF(W59&lt;&gt;"",E59,0)+IF(Z59&lt;&gt;"",E59,0)+IF(AC59&lt;&gt;"",E59,0)+IF(AF59&lt;&gt;"",E59,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C59" s="3"/>
@@ -11376,10 +10773,10 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:32">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="5" t="str">
-        <f>IF(IF(E60&lt;&gt;"",E60,0)+IF(H60&lt;&gt;"",E60,0)+IF(K60&lt;&gt;"",E60,0)+IF(N60&lt;&gt;"",E60,0)+IF(Q60&lt;&gt;"",E60,0)+IF(T60&lt;&gt;"",E60,0)+IF(W60&lt;&gt;"",E60,0)+IF(Z60&lt;&gt;"",E60,0)+IF(AC60&lt;&gt;"",E60,0)+IF(AF60&lt;&gt;"",E60,0)&lt;&gt;0,IF(E60&lt;&gt;"",E60,0)+IF(H60&lt;&gt;"",E60,0)+IF(K60&lt;&gt;"",E60,0)+IF(N60&lt;&gt;"",E60,0)+IF(Q60&lt;&gt;"",E60,0)+IF(T60&lt;&gt;"",E60,0)+IF(W60&lt;&gt;"",E60,0)+IF(Z60&lt;&gt;"",E60,0)+IF(AC60&lt;&gt;"",E60,0)+IF(AF60&lt;&gt;"",E60,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C60" s="3"/>
@@ -11443,10 +10840,10 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:32">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="5" t="str">
-        <f>IF(IF(E61&lt;&gt;"",E61,0)+IF(H61&lt;&gt;"",E61,0)+IF(K61&lt;&gt;"",E61,0)+IF(N61&lt;&gt;"",E61,0)+IF(Q61&lt;&gt;"",E61,0)+IF(T61&lt;&gt;"",E61,0)+IF(W61&lt;&gt;"",E61,0)+IF(Z61&lt;&gt;"",E61,0)+IF(AC61&lt;&gt;"",E61,0)+IF(AF61&lt;&gt;"",E61,0)&lt;&gt;0,IF(E61&lt;&gt;"",E61,0)+IF(H61&lt;&gt;"",E61,0)+IF(K61&lt;&gt;"",E61,0)+IF(N61&lt;&gt;"",E61,0)+IF(Q61&lt;&gt;"",E61,0)+IF(T61&lt;&gt;"",E61,0)+IF(W61&lt;&gt;"",E61,0)+IF(Z61&lt;&gt;"",E61,0)+IF(AC61&lt;&gt;"",E61,0)+IF(AF61&lt;&gt;"",E61,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C61" s="3"/>
@@ -11510,10 +10907,10 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:32">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="5" t="str">
-        <f>IF(IF(E62&lt;&gt;"",E62,0)+IF(H62&lt;&gt;"",E62,0)+IF(K62&lt;&gt;"",E62,0)+IF(N62&lt;&gt;"",E62,0)+IF(Q62&lt;&gt;"",E62,0)+IF(T62&lt;&gt;"",E62,0)+IF(W62&lt;&gt;"",E62,0)+IF(Z62&lt;&gt;"",E62,0)+IF(AC62&lt;&gt;"",E62,0)+IF(AF62&lt;&gt;"",E62,0)&lt;&gt;0,IF(E62&lt;&gt;"",E62,0)+IF(H62&lt;&gt;"",E62,0)+IF(K62&lt;&gt;"",E62,0)+IF(N62&lt;&gt;"",E62,0)+IF(Q62&lt;&gt;"",E62,0)+IF(T62&lt;&gt;"",E62,0)+IF(W62&lt;&gt;"",E62,0)+IF(Z62&lt;&gt;"",E62,0)+IF(AC62&lt;&gt;"",E62,0)+IF(AF62&lt;&gt;"",E62,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C62" s="3"/>
@@ -11577,10 +10974,10 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:32">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="5" t="str">
-        <f>IF(IF(E63&lt;&gt;"",E63,0)+IF(H63&lt;&gt;"",E63,0)+IF(K63&lt;&gt;"",E63,0)+IF(N63&lt;&gt;"",E63,0)+IF(Q63&lt;&gt;"",E63,0)+IF(T63&lt;&gt;"",E63,0)+IF(W63&lt;&gt;"",E63,0)+IF(Z63&lt;&gt;"",E63,0)+IF(AC63&lt;&gt;"",E63,0)+IF(AF63&lt;&gt;"",E63,0)&lt;&gt;0,IF(E63&lt;&gt;"",E63,0)+IF(H63&lt;&gt;"",E63,0)+IF(K63&lt;&gt;"",E63,0)+IF(N63&lt;&gt;"",E63,0)+IF(Q63&lt;&gt;"",E63,0)+IF(T63&lt;&gt;"",E63,0)+IF(W63&lt;&gt;"",E63,0)+IF(Z63&lt;&gt;"",E63,0)+IF(AC63&lt;&gt;"",E63,0)+IF(AF63&lt;&gt;"",E63,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C63" s="3"/>
@@ -11644,10 +11041,10 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:32">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="5" t="str">
-        <f>IF(IF(E64&lt;&gt;"",E64,0)+IF(H64&lt;&gt;"",E64,0)+IF(K64&lt;&gt;"",E64,0)+IF(N64&lt;&gt;"",E64,0)+IF(Q64&lt;&gt;"",E64,0)+IF(T64&lt;&gt;"",E64,0)+IF(W64&lt;&gt;"",E64,0)+IF(Z64&lt;&gt;"",E64,0)+IF(AC64&lt;&gt;"",E64,0)+IF(AF64&lt;&gt;"",E64,0)&lt;&gt;0,IF(E64&lt;&gt;"",E64,0)+IF(H64&lt;&gt;"",E64,0)+IF(K64&lt;&gt;"",E64,0)+IF(N64&lt;&gt;"",E64,0)+IF(Q64&lt;&gt;"",E64,0)+IF(T64&lt;&gt;"",E64,0)+IF(W64&lt;&gt;"",E64,0)+IF(Z64&lt;&gt;"",E64,0)+IF(AC64&lt;&gt;"",E64,0)+IF(AF64&lt;&gt;"",E64,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C64" s="3"/>
@@ -11711,10 +11108,10 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:32">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="5" t="str">
-        <f>IF(IF(E65&lt;&gt;"",E65,0)+IF(H65&lt;&gt;"",E65,0)+IF(K65&lt;&gt;"",E65,0)+IF(N65&lt;&gt;"",E65,0)+IF(Q65&lt;&gt;"",E65,0)+IF(T65&lt;&gt;"",E65,0)+IF(W65&lt;&gt;"",E65,0)+IF(Z65&lt;&gt;"",E65,0)+IF(AC65&lt;&gt;"",E65,0)+IF(AF65&lt;&gt;"",E65,0)&lt;&gt;0,IF(E65&lt;&gt;"",E65,0)+IF(H65&lt;&gt;"",E65,0)+IF(K65&lt;&gt;"",E65,0)+IF(N65&lt;&gt;"",E65,0)+IF(Q65&lt;&gt;"",E65,0)+IF(T65&lt;&gt;"",E65,0)+IF(W65&lt;&gt;"",E65,0)+IF(Z65&lt;&gt;"",E65,0)+IF(AC65&lt;&gt;"",E65,0)+IF(AF65&lt;&gt;"",E65,0),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C65" s="3"/>
@@ -11778,10 +11175,10 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:32">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="5" t="str">
-        <f t="shared" ref="B66:B100" si="1">IF(IF(E66&lt;&gt;"",E66,0)+IF(H66&lt;&gt;"",E66,0)+IF(K66&lt;&gt;"",E66,0)+IF(N66&lt;&gt;"",E66,0)+IF(Q66&lt;&gt;"",E66,0)+IF(T66&lt;&gt;"",E66,0)+IF(W66&lt;&gt;"",E66,0)+IF(Z66&lt;&gt;"",E66,0)+IF(AC66&lt;&gt;"",E66,0)+IF(AF66&lt;&gt;"",E66,0)&lt;&gt;0,IF(E66&lt;&gt;"",E66,0)+IF(H66&lt;&gt;"",E66,0)+IF(K66&lt;&gt;"",E66,0)+IF(N66&lt;&gt;"",E66,0)+IF(Q66&lt;&gt;"",E66,0)+IF(T66&lt;&gt;"",E66,0)+IF(W66&lt;&gt;"",E66,0)+IF(Z66&lt;&gt;"",E66,0)+IF(AC66&lt;&gt;"",E66,0)+IF(AF66&lt;&gt;"",E66,0),"")</f>
+        <f t="shared" ref="B66:B100" si="2">IF(IF(E66&lt;&gt;"",E66,0)+IF(H66&lt;&gt;"",E66,0)+IF(K66&lt;&gt;"",E66,0)+IF(N66&lt;&gt;"",E66,0)+IF(Q66&lt;&gt;"",E66,0)+IF(T66&lt;&gt;"",E66,0)+IF(W66&lt;&gt;"",E66,0)+IF(Z66&lt;&gt;"",E66,0)+IF(AC66&lt;&gt;"",E66,0)+IF(AF66&lt;&gt;"",E66,0)&lt;&gt;0,IF(E66&lt;&gt;"",E66,0)+IF(H66&lt;&gt;"",E66,0)+IF(K66&lt;&gt;"",E66,0)+IF(N66&lt;&gt;"",E66,0)+IF(Q66&lt;&gt;"",E66,0)+IF(T66&lt;&gt;"",E66,0)+IF(W66&lt;&gt;"",E66,0)+IF(Z66&lt;&gt;"",E66,0)+IF(AC66&lt;&gt;"",E66,0)+IF(AF66&lt;&gt;"",E66,0),"")</f>
         <v/>
       </c>
       <c r="C66" s="3"/>
@@ -11845,10 +11242,10 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:32">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C67" s="3"/>
@@ -11912,10 +11309,10 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:32">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C68" s="3"/>
@@ -11979,10 +11376,10 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:32">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C69" s="3"/>
@@ -12046,10 +11443,10 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:32">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C70" s="3"/>
@@ -12113,10 +11510,10 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:32">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C71" s="3"/>
@@ -12180,10 +11577,10 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:32">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C72" s="3"/>
@@ -12247,10 +11644,10 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:32">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C73" s="3"/>
@@ -12314,10 +11711,10 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:32">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C74" s="3"/>
@@ -12381,10 +11778,10 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:32">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C75" s="3"/>
@@ -12448,10 +11845,10 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:32">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C76" s="3"/>
@@ -12515,10 +11912,10 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:32">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C77" s="3"/>
@@ -12582,10 +11979,10 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:32">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C78" s="3"/>
@@ -12649,10 +12046,10 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:32">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C79" s="3"/>
@@ -12716,10 +12113,10 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:32">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C80" s="3"/>
@@ -12783,10 +12180,10 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:32">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C81" s="3"/>
@@ -12850,10 +12247,10 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:32">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C82" s="3"/>
@@ -12917,10 +12314,10 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:32">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C83" s="3"/>
@@ -12984,10 +12381,10 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:32">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C84" s="3"/>
@@ -13051,10 +12448,10 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:32">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C85" s="3"/>
@@ -13118,10 +12515,10 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:32">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C86" s="3"/>
@@ -13185,10 +12582,10 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:32">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C87" s="3"/>
@@ -13252,10 +12649,10 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:32">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C88" s="3"/>
@@ -13319,10 +12716,10 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:32">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C89" s="3"/>
@@ -13386,10 +12783,10 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:32">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C90" s="3"/>
@@ -13453,10 +12850,10 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:32">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C91" s="3"/>
@@ -13520,10 +12917,10 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:32">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C92" s="3"/>
@@ -13587,10 +12984,10 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:32">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C93" s="3"/>
@@ -13654,10 +13051,10 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:32">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C94" s="3"/>
@@ -13721,10 +13118,10 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:32">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C95" s="3"/>
@@ -13788,10 +13185,10 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:32">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C96" s="3"/>
@@ -13855,10 +13252,10 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:32">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C97" s="3"/>
@@ -13922,10 +13319,10 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:32">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C98" s="3"/>
@@ -13989,10 +13386,10 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:32">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C99" s="3"/>
@@ -14056,10 +13453,10 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:32">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C100" s="3"/>
@@ -14124,36 +13521,45 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C8 F8 C6:C7 C9:C100 F2:F7 F9:F100 I2:I100 L2:L100 O2:O100 R2:R100 U2:U100 X2:X100 AA2:AA100 AD2:AD100">
-      <formula1>联合产品页!$B$2:$B$25540</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C5">
-      <formula1>联合产品页!$B$2:$B25537</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>联合产品页!$B$2:$B$25540</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2 C8 F8 C6:C7 C9:C100 F2:F7 F9:F100 I2:I100 L2:L100 O2:O100 R2:R100 U2:U100 X2:X100 AA2:AA100 AD2:AD100</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>联合产品页!$B$2:$B25537</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="12.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -14164,7 +13570,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -14177,7 +13583,7 @@
         <v>0.1384</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -14187,10 +13593,10 @@
       </c>
       <c r="C3" s="2">
         <f>VLOOKUP(B3,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.068</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>122</v>
       </c>
@@ -14200,10 +13606,10 @@
       </c>
       <c r="C4" s="2">
         <f>VLOOKUP(B4,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.0716</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>7.1599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>122</v>
       </c>
@@ -14213,10 +13619,10 @@
       </c>
       <c r="C5" s="2">
         <f>VLOOKUP(B5,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.044</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -14226,10 +13632,10 @@
       </c>
       <c r="C6" s="2">
         <f>VLOOKUP(B6,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.048</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>122</v>
       </c>
@@ -14239,10 +13645,10 @@
       </c>
       <c r="C7" s="2">
         <f>VLOOKUP(B7,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.021</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -14252,10 +13658,10 @@
       </c>
       <c r="C8" s="2">
         <f>VLOOKUP(B8,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.00933333333333333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>9.3333333333333341E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -14265,10 +13671,10 @@
       </c>
       <c r="C9" s="2">
         <f>VLOOKUP(B9,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.0182819383259912</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>1.828193832599119E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>122</v>
       </c>
@@ -14278,10 +13684,10 @@
       </c>
       <c r="C10" s="2">
         <f>VLOOKUP(B10,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.0168869309838473</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>1.6886930983847283E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>122</v>
       </c>
@@ -14291,10 +13697,10 @@
       </c>
       <c r="C11" s="2">
         <f>VLOOKUP(B11,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.00726872246696035</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>7.2687224669603524E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>122</v>
       </c>
@@ -14304,10 +13710,10 @@
       </c>
       <c r="C12" s="2">
         <f>VLOOKUP(B12,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.0108333333333333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>1.0833333333333334E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -14320,7 +13726,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>122</v>
       </c>
@@ -14330,10 +13736,10 @@
       </c>
       <c r="C14" s="2">
         <f>VLOOKUP(B14,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.046</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -14343,10 +13749,10 @@
       </c>
       <c r="C15" s="2">
         <f>VLOOKUP(B15,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.045</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>122</v>
       </c>
@@ -14356,10 +13762,10 @@
       </c>
       <c r="C16" s="2">
         <f>VLOOKUP(B16,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.344</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>122</v>
       </c>
@@ -14369,10 +13775,10 @@
       </c>
       <c r="C17" s="2">
         <f>VLOOKUP(B17,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.098</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>122</v>
       </c>
@@ -14385,7 +13791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>122</v>
       </c>
@@ -14398,7 +13804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>122</v>
       </c>
@@ -14411,7 +13817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>122</v>
       </c>
@@ -14421,10 +13827,10 @@
       </c>
       <c r="C21" s="2">
         <f>VLOOKUP(B21,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.0175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>122</v>
       </c>
@@ -14434,10 +13840,10 @@
       </c>
       <c r="C22" s="2">
         <f>VLOOKUP(B22,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.0118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>1.1800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>122</v>
       </c>
@@ -14447,10 +13853,10 @@
       </c>
       <c r="C23" s="2">
         <f>VLOOKUP(B23,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.0099</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>9.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>122</v>
       </c>
@@ -14463,7 +13869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>122</v>
       </c>
@@ -14473,10 +13879,10 @@
       </c>
       <c r="C25" s="2">
         <f>VLOOKUP(B25,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.0365</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>3.6499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>122</v>
       </c>
@@ -14489,7 +13895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>122</v>
       </c>
@@ -14499,10 +13905,10 @@
       </c>
       <c r="C27" s="2">
         <f>VLOOKUP(B27,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.0633333333333333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>6.3333333333333339E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>122</v>
       </c>
@@ -14512,10 +13918,10 @@
       </c>
       <c r="C28" s="2">
         <f>VLOOKUP(B28,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.0633333333333333</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>6.3333333333333339E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>122</v>
       </c>
@@ -14525,10 +13931,10 @@
       </c>
       <c r="C29" s="2">
         <f>VLOOKUP(B29,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.0733333333333333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>7.3333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>122</v>
       </c>
@@ -14538,10 +13944,10 @@
       </c>
       <c r="C30" s="2">
         <f>VLOOKUP(B30,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.535714285714286</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.5357142857142857</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>122</v>
       </c>
@@ -14551,10 +13957,10 @@
       </c>
       <c r="C31" s="2">
         <f>VLOOKUP(B31,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.0752</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>7.5200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>122</v>
       </c>
@@ -14567,7 +13973,7 @@
         <v>1.2375</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>122</v>
       </c>
@@ -14577,10 +13983,10 @@
       </c>
       <c r="C33" s="2">
         <f>VLOOKUP(B33,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.066</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>122</v>
       </c>
@@ -14590,10 +13996,10 @@
       </c>
       <c r="C34" s="2">
         <f>VLOOKUP(B34,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.0592</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>5.9200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>122</v>
       </c>
@@ -14603,10 +14009,10 @@
       </c>
       <c r="C35" s="2">
         <f>VLOOKUP(B35,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.0672</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>6.720000000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>122</v>
       </c>
@@ -14619,7 +14025,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>122</v>
       </c>
@@ -14629,10 +14035,10 @@
       </c>
       <c r="C37" s="2">
         <f>VLOOKUP(B37,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.0426666666666667</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>4.2666666666666672E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>122</v>
       </c>
@@ -14645,7 +14051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>122</v>
       </c>
@@ -14655,10 +14061,10 @@
       </c>
       <c r="C39" s="2">
         <f>VLOOKUP(B39,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.027</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>122</v>
       </c>
@@ -14668,10 +14074,10 @@
       </c>
       <c r="C40" s="2">
         <f>VLOOKUP(B40,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>122</v>
       </c>
@@ -14681,10 +14087,10 @@
       </c>
       <c r="C41" s="2">
         <f>VLOOKUP(B41,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.038</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>122</v>
       </c>
@@ -14694,10 +14100,10 @@
       </c>
       <c r="C42" s="2">
         <f>VLOOKUP(B42,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.165</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>122</v>
       </c>
@@ -14710,7 +14116,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>122</v>
       </c>
@@ -14720,10 +14126,10 @@
       </c>
       <c r="C44" s="2">
         <f>VLOOKUP(B44,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.0550660792951542</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>5.5066079295154183E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>122</v>
       </c>
@@ -14733,10 +14139,10 @@
       </c>
       <c r="C45" s="2">
         <f>VLOOKUP(B45,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.066079295154185</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>6.6079295154185022E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>122</v>
       </c>
@@ -14746,10 +14152,10 @@
       </c>
       <c r="C46" s="2">
         <f>VLOOKUP(B46,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>122</v>
       </c>
@@ -14759,10 +14165,10 @@
       </c>
       <c r="C47" s="2">
         <f>VLOOKUP(B47,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.513274336283186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.51327433628318586</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>122</v>
       </c>
@@ -14775,7 +14181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>122</v>
       </c>
@@ -14785,10 +14191,10 @@
       </c>
       <c r="C49" s="2">
         <f>VLOOKUP(B49,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.0338235294117647</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>3.3823529411764704E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>122</v>
       </c>
@@ -14798,10 +14204,10 @@
       </c>
       <c r="C50" s="2">
         <f>VLOOKUP(B50,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.0477941176470588</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>4.779411764705882E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>122</v>
       </c>
@@ -14811,10 +14217,10 @@
       </c>
       <c r="C51" s="2">
         <f>VLOOKUP(B51,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.045</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>122</v>
       </c>
@@ -14827,7 +14233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>122</v>
       </c>
@@ -14837,10 +14243,10 @@
       </c>
       <c r="C53" s="2">
         <f>VLOOKUP(B53,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.088</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>8.8000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>122</v>
       </c>
@@ -14850,10 +14256,10 @@
       </c>
       <c r="C54" s="2">
         <f>VLOOKUP(B54,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.0125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>122</v>
       </c>
@@ -14863,10 +14269,10 @@
       </c>
       <c r="C55" s="2">
         <f>VLOOKUP(B55,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.035</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>122</v>
       </c>
@@ -14876,10 +14282,10 @@
       </c>
       <c r="C56" s="2">
         <f>VLOOKUP(B56,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.004</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>122</v>
       </c>
@@ -14889,10 +14295,10 @@
       </c>
       <c r="C57" s="2">
         <f>VLOOKUP(B57,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.0490196078431373</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>4.9019607843137254E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>122</v>
       </c>
@@ -14902,10 +14308,10 @@
       </c>
       <c r="C58" s="2">
         <f>VLOOKUP(B58,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.144</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>122</v>
       </c>
@@ -14918,7 +14324,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>122</v>
       </c>
@@ -14931,7 +14337,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>122</v>
       </c>
@@ -14941,10 +14347,10 @@
       </c>
       <c r="C61" s="2">
         <f>VLOOKUP(B61,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.0285714285714286</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>2.8571428571428571E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>122</v>
       </c>
@@ -14957,7 +14363,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>122</v>
       </c>
@@ -14967,10 +14373,10 @@
       </c>
       <c r="C63" s="2">
         <f>VLOOKUP(B63,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.116740088105727</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.11674008810572688</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>122</v>
       </c>
@@ -14980,10 +14386,10 @@
       </c>
       <c r="C64" s="2">
         <f>VLOOKUP(B64,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.083</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>122</v>
       </c>
@@ -14995,7 +14401,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>122</v>
       </c>
@@ -15004,10 +14410,10 @@
       </c>
       <c r="C66" s="2">
         <f>VLOOKUP(B66,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.0936</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>9.3599999999999989E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>122</v>
       </c>
@@ -15016,10 +14422,10 @@
       </c>
       <c r="C67" s="2">
         <f>VLOOKUP(B67,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>122</v>
       </c>
@@ -15028,10 +14434,10 @@
       </c>
       <c r="C68" s="2">
         <f>VLOOKUP(B68,原材料!A$2:D$25533,4,FALSE)</f>
-        <v>0.024</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>123</v>
       </c>
@@ -15041,10 +14447,10 @@
       </c>
       <c r="C69" s="2">
         <f>VLOOKUP(B69,基础产品!A$2:B$25535,2,FALSE)</f>
-        <v>4.68439941262849</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>4.6843994126284887</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>123</v>
       </c>
@@ -15054,10 +14460,10 @@
       </c>
       <c r="C70" s="2">
         <f>VLOOKUP(B70,基础产品!A$2:B$25535,2,FALSE)</f>
-        <v>4.40695668135096</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>4.4069566813509553</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>123</v>
       </c>
@@ -15067,10 +14473,10 @@
       </c>
       <c r="C71" s="2">
         <f>VLOOKUP(B71,基础产品!A$2:B$25535,2,FALSE)</f>
-        <v>4.47626211453745</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>4.4762621145374455</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>123</v>
       </c>
@@ -15080,10 +14486,10 @@
       </c>
       <c r="C72" s="2">
         <f>VLOOKUP(B72,基础产品!A$2:B$25535,2,FALSE)</f>
-        <v>4.58612334801762</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>4.5861233480176216</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>123</v>
       </c>
@@ -15093,10 +14499,10 @@
       </c>
       <c r="C73" s="2">
         <f>VLOOKUP(B73,基础产品!A$2:B$25535,2,FALSE)</f>
-        <v>4.20824889867841</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>4.2082488986784146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>123</v>
       </c>
@@ -15106,10 +14512,10 @@
       </c>
       <c r="C74" s="2">
         <f>VLOOKUP(B74,基础产品!A$2:B$25535,2,FALSE)</f>
-        <v>8.41649779735683</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>8.4164977973568291</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>123</v>
       </c>
@@ -15119,10 +14525,10 @@
       </c>
       <c r="C75" s="2">
         <f>VLOOKUP(B75,基础产品!A$2:B$25535,2,FALSE)</f>
-        <v>4.90246696035242</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>4.9024669603524238</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>123</v>
       </c>
@@ -15132,10 +14538,10 @@
       </c>
       <c r="C76" s="2">
         <f>VLOOKUP(B76,基础产品!A$2:B$25535,2,FALSE)</f>
-        <v>9.80493392070485</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>9.8049339207048476</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>123</v>
       </c>
@@ -15145,10 +14551,10 @@
       </c>
       <c r="C77" s="2">
         <f>VLOOKUP(B77,基础产品!A$2:B$25535,2,FALSE)</f>
-        <v>8.7255389133627</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>8.725538913362703</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>123</v>
       </c>
@@ -15158,10 +14564,10 @@
       </c>
       <c r="C78" s="2">
         <f>VLOOKUP(B78,基础产品!A$2:B$25535,2,FALSE)</f>
-        <v>0.996666666666667</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.9966666666666667</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>123</v>
       </c>
@@ -15171,10 +14577,10 @@
       </c>
       <c r="C79" s="2">
         <f>VLOOKUP(B79,基础产品!A$2:B$25535,2,FALSE)</f>
-        <v>6.63333333333333</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>6.6333333333333337</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>123</v>
       </c>
@@ -15184,10 +14590,10 @@
       </c>
       <c r="C80" s="2">
         <f>VLOOKUP(B80,基础产品!A$2:B$25535,2,FALSE)</f>
-        <v>65.5489133627019</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>65.54891336270191</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>123</v>
       </c>
@@ -15197,10 +14603,10 @@
       </c>
       <c r="C81" s="2">
         <f>VLOOKUP(B81,基础产品!A$2:B$25535,2,FALSE)</f>
-        <v>2.90279001468429</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>2.902790014684288</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>123</v>
       </c>
@@ -15210,10 +14616,10 @@
       </c>
       <c r="C82" s="2">
         <f>VLOOKUP(B82,基础产品!A$2:B$25535,2,FALSE)</f>
-        <v>4.45283039647577</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>4.4528303964757709</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>123</v>
       </c>
@@ -15223,10 +14629,10 @@
       </c>
       <c r="C83" s="2">
         <f>VLOOKUP(B83,基础产品!A$2:B$25535,2,FALSE)</f>
-        <v>3.55025987734301</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>3.5502598773430076</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>123</v>
       </c>
@@ -15236,10 +14642,10 @@
       </c>
       <c r="C84" s="2">
         <f>VLOOKUP(B84,基础产品!A$2:B$25535,2,FALSE)</f>
-        <v>51.4558516886931</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>51.455851688693102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>123</v>
       </c>
@@ -15249,10 +14655,10 @@
       </c>
       <c r="C85" s="2">
         <f>VLOOKUP(B85,基础产品!A$2:B$25535,2,FALSE)</f>
-        <v>30.6316417033774</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>30.63164170337739</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>123</v>
       </c>
@@ -15262,10 +14668,10 @@
       </c>
       <c r="C86" s="2">
         <f>VLOOKUP(B86,基础产品!A$2:B$25535,2,FALSE)</f>
-        <v>8.75520558002937</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>8.7552055800293687</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>123</v>
       </c>
@@ -15275,10 +14681,10 @@
       </c>
       <c r="C87" s="2">
         <f>VLOOKUP(B87,基础产品!A$2:B$25535,2,FALSE)</f>
-        <v>6.14095238095238</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>6.1409523809523812</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>123</v>
       </c>
@@ -15288,10 +14694,10 @@
       </c>
       <c r="C88" s="2">
         <f>VLOOKUP(B88,基础产品!A$2:B$25535,2,FALSE)</f>
-        <v>3.74952380952381</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>3.7495238095238097</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>123</v>
       </c>
@@ -15301,10 +14707,10 @@
       </c>
       <c r="C89" s="2">
         <f>VLOOKUP(B89,基础产品!A$2:B$25535,2,FALSE)</f>
-        <v>20.9414977973568</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>20.941497797356828</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>123</v>
       </c>
@@ -15314,10 +14720,10 @@
       </c>
       <c r="C90" s="2">
         <f>VLOOKUP(B90,基础产品!A$2:B$25535,2,FALSE)</f>
-        <v>30.4081938325991</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>30.408193832599117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>123</v>
       </c>
@@ -15327,10 +14733,10 @@
       </c>
       <c r="C91" s="2">
         <f>VLOOKUP(B91,基础产品!A$2:B$25535,2,FALSE)</f>
-        <v>13.8196622613803</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>13.819662261380323</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>123</v>
       </c>
@@ -15339,10 +14745,10 @@
       </c>
       <c r="C92" s="2">
         <f>VLOOKUP(B92,基础产品!A$2:B$25535,2,FALSE)</f>
-        <v>7.57158002936858</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>7.5715800293685769</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>123</v>
       </c>
@@ -15351,12 +14757,12 @@
       </c>
       <c r="C93" s="2">
         <f>VLOOKUP(B93,基础产品!A$2:B$25535,2,FALSE)</f>
-        <v>5.28733333333333</v>
+        <v>5.2873333333333337</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/java/src/main/resources/价格核算.xlsx
+++ b/java/src/main/resources/价格核算.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\github\cake_category\java\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\cake_category\java\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13740" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="原材料" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -463,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -484,7 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -771,15 +771,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -793,7 +793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -808,7 +808,7 @@
         <v>0.1384</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -823,7 +823,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -838,7 +838,7 @@
         <v>7.1599999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -853,7 +853,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -868,7 +868,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -883,7 +883,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -898,7 +898,7 @@
         <v>9.3333333333333341E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -913,7 +913,7 @@
         <v>1.828193832599119E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -928,7 +928,7 @@
         <v>1.6886930983847283E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -943,7 +943,7 @@
         <v>7.2687224669603524E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -958,7 +958,7 @@
         <v>1.0833333333333334E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -973,7 +973,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -988,7 +988,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -1041,7 +1041,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -1049,7 +1049,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>1.1800000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>9.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
@@ -1117,7 +1117,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>3.6499999999999998E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
@@ -1140,7 +1140,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>6.3333333333333339E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>6.3333333333333339E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>7.3333333333333334E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>0.5357142857142857</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>33</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>7.5200000000000003E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>1.2375</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>5.9200000000000003E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>6.720000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>38</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>39</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>4.2666666666666672E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>40</v>
       </c>
@@ -1313,7 +1313,7 @@
       <c r="C38" s="3"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>41</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>42</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>43</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>44</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>45</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>46</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>5.5066079295154183E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>47</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>6.6079295154185022E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>48</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>49</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>0.51327433628318586</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>50</v>
       </c>
@@ -1456,7 +1456,7 @@
       <c r="C48" s="3"/>
       <c r="D48" s="9"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>3.3823529411764704E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>52</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>4.779411764705882E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>53</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>54</v>
       </c>
@@ -1509,7 +1509,7 @@
       <c r="C52" s="3"/>
       <c r="D52" s="9"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>55</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>8.8000000000000009E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>56</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>57</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>58</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>59</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>4.9019607843137254E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>60</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>61</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>62</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>63</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>2.8571428571428571E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>64</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>65</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>0.11674008810572688</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>66</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>67</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>68</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>9.3599999999999989E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>69</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>70</v>
       </c>
@@ -1749,865 +1749,865 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -2623,24 +2623,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="8" max="8" width="9.875" customWidth="1"/>
-    <col min="9" max="9" width="17.25" customWidth="1"/>
-    <col min="12" max="12" width="17.25" customWidth="1"/>
-    <col min="15" max="15" width="14.25" customWidth="1"/>
-    <col min="21" max="21" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" customWidth="1"/>
+    <col min="12" max="12" width="17.21875" customWidth="1"/>
+    <col min="15" max="15" width="14.21875" customWidth="1"/>
+    <col min="21" max="21" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>71</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>85</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>86</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>87</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>88</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>89</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>90</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>91</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>92</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>93</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>94</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>95</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>96</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>97</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>98</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>99</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>100</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>0.11499999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>101</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>102</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>103</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>104</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>105</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>106</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>107</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>108</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>109</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>110</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>111</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>112</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>113</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>114</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5475,7 +5475,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5542,7 +5542,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5609,7 +5609,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5676,7 +5676,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5743,7 +5743,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5810,7 +5810,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5877,7 +5877,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="5" t="str">
         <f t="shared" si="0"/>
@@ -5944,7 +5944,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="5" t="str">
         <f t="shared" si="0"/>
@@ -6011,7 +6011,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="5" t="str">
         <f t="shared" si="0"/>
@@ -6078,7 +6078,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="5" t="str">
         <f t="shared" si="0"/>
@@ -6145,7 +6145,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="5" t="str">
         <f t="shared" si="0"/>
@@ -6212,7 +6212,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="5" t="str">
         <f t="shared" si="0"/>
@@ -6279,7 +6279,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="5" t="str">
         <f t="shared" si="0"/>
@@ -6346,7 +6346,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="5" t="str">
         <f t="shared" si="0"/>
@@ -6413,7 +6413,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="5" t="str">
         <f t="shared" si="0"/>
@@ -6480,7 +6480,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="5" t="str">
         <f t="shared" si="0"/>
@@ -6547,7 +6547,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="5" t="str">
         <f t="shared" si="0"/>
@@ -6614,7 +6614,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="5" t="str">
         <f t="shared" si="0"/>
@@ -6704,26 +6704,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="1"/>
+    <col min="1" max="1" width="25.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.875" style="1"/>
-    <col min="9" max="9" width="17.125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8.875" style="1"/>
+    <col min="6" max="6" width="17.21875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="17.109375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.88671875" style="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="32" width="8.875" style="1" customWidth="1"/>
-    <col min="33" max="33" width="12.875"/>
+    <col min="13" max="32" width="8.88671875" style="1" customWidth="1"/>
+    <col min="33" max="33" width="12.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>71</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>115</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>116</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>117</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>118</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>113</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>119</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7356,7 +7356,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7423,7 +7423,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7490,7 +7490,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7557,7 +7557,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7624,7 +7624,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7691,7 +7691,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7758,7 +7758,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7825,7 +7825,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7892,7 +7892,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="5" t="str">
         <f t="shared" si="0"/>
@@ -7959,7 +7959,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8026,7 +8026,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8093,7 +8093,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8160,7 +8160,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8227,7 +8227,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8294,7 +8294,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8361,7 +8361,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8428,7 +8428,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8495,7 +8495,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8562,7 +8562,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8629,7 +8629,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8696,7 +8696,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8763,7 +8763,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8830,7 +8830,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8897,7 +8897,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="5" t="str">
         <f t="shared" si="0"/>
@@ -8964,7 +8964,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="5" t="str">
         <f t="shared" si="0"/>
@@ -9031,7 +9031,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="5" t="str">
         <f t="shared" si="0"/>
@@ -9098,7 +9098,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="5" t="str">
         <f t="shared" si="0"/>
@@ -9165,7 +9165,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="5" t="str">
         <f t="shared" si="0"/>
@@ -9232,7 +9232,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="5" t="str">
         <f t="shared" si="0"/>
@@ -9299,7 +9299,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="5" t="str">
         <f t="shared" si="0"/>
@@ -9366,7 +9366,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="5" t="str">
         <f t="shared" si="0"/>
@@ -9433,7 +9433,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="5" t="str">
         <f t="shared" si="0"/>
@@ -9500,7 +9500,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="5" t="str">
         <f t="shared" si="0"/>
@@ -9567,7 +9567,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="5" t="str">
         <f t="shared" si="0"/>
@@ -9634,7 +9634,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="5" t="str">
         <f t="shared" si="0"/>
@@ -9701,7 +9701,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="5" t="str">
         <f t="shared" si="0"/>
@@ -9768,7 +9768,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="5" t="str">
         <f t="shared" ref="B45:B65" si="1">IF(IF(E45&lt;&gt;"",E45,0)+IF(H45&lt;&gt;"",E45,0)+IF(K45&lt;&gt;"",E45,0)+IF(N45&lt;&gt;"",E45,0)+IF(Q45&lt;&gt;"",E45,0)+IF(T45&lt;&gt;"",E45,0)+IF(W45&lt;&gt;"",E45,0)+IF(Z45&lt;&gt;"",E45,0)+IF(AC45&lt;&gt;"",E45,0)+IF(AF45&lt;&gt;"",E45,0)&lt;&gt;0,IF(E45&lt;&gt;"",E45,0)+IF(H45&lt;&gt;"",E45,0)+IF(K45&lt;&gt;"",E45,0)+IF(N45&lt;&gt;"",E45,0)+IF(Q45&lt;&gt;"",E45,0)+IF(T45&lt;&gt;"",E45,0)+IF(W45&lt;&gt;"",E45,0)+IF(Z45&lt;&gt;"",E45,0)+IF(AC45&lt;&gt;"",E45,0)+IF(AF45&lt;&gt;"",E45,0),"")</f>
@@ -9835,7 +9835,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="5" t="str">
         <f t="shared" si="1"/>
@@ -9902,7 +9902,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="5" t="str">
         <f t="shared" si="1"/>
@@ -9969,7 +9969,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="5" t="str">
         <f t="shared" si="1"/>
@@ -10036,7 +10036,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="5" t="str">
         <f t="shared" si="1"/>
@@ -10103,7 +10103,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="5" t="str">
         <f t="shared" si="1"/>
@@ -10170,7 +10170,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="5" t="str">
         <f t="shared" si="1"/>
@@ -10237,7 +10237,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="5" t="str">
         <f t="shared" si="1"/>
@@ -10304,7 +10304,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="5" t="str">
         <f t="shared" si="1"/>
@@ -10371,7 +10371,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="5" t="str">
         <f t="shared" si="1"/>
@@ -10438,7 +10438,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="5" t="str">
         <f t="shared" si="1"/>
@@ -10505,7 +10505,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="5" t="str">
         <f t="shared" si="1"/>
@@ -10572,7 +10572,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="5" t="str">
         <f t="shared" si="1"/>
@@ -10639,7 +10639,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="5" t="str">
         <f t="shared" si="1"/>
@@ -10706,7 +10706,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="5" t="str">
         <f t="shared" si="1"/>
@@ -10773,7 +10773,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="5" t="str">
         <f t="shared" si="1"/>
@@ -10840,7 +10840,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="5" t="str">
         <f t="shared" si="1"/>
@@ -10907,7 +10907,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="5" t="str">
         <f t="shared" si="1"/>
@@ -10974,7 +10974,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="5" t="str">
         <f t="shared" si="1"/>
@@ -11041,7 +11041,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="5" t="str">
         <f t="shared" si="1"/>
@@ -11108,7 +11108,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="5" t="str">
         <f t="shared" si="1"/>
@@ -11175,7 +11175,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="5" t="str">
         <f t="shared" ref="B66:B100" si="2">IF(IF(E66&lt;&gt;"",E66,0)+IF(H66&lt;&gt;"",E66,0)+IF(K66&lt;&gt;"",E66,0)+IF(N66&lt;&gt;"",E66,0)+IF(Q66&lt;&gt;"",E66,0)+IF(T66&lt;&gt;"",E66,0)+IF(W66&lt;&gt;"",E66,0)+IF(Z66&lt;&gt;"",E66,0)+IF(AC66&lt;&gt;"",E66,0)+IF(AF66&lt;&gt;"",E66,0)&lt;&gt;0,IF(E66&lt;&gt;"",E66,0)+IF(H66&lt;&gt;"",E66,0)+IF(K66&lt;&gt;"",E66,0)+IF(N66&lt;&gt;"",E66,0)+IF(Q66&lt;&gt;"",E66,0)+IF(T66&lt;&gt;"",E66,0)+IF(W66&lt;&gt;"",E66,0)+IF(Z66&lt;&gt;"",E66,0)+IF(AC66&lt;&gt;"",E66,0)+IF(AF66&lt;&gt;"",E66,0),"")</f>
@@ -11242,7 +11242,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="5" t="str">
         <f t="shared" si="2"/>
@@ -11309,7 +11309,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="5" t="str">
         <f t="shared" si="2"/>
@@ -11376,7 +11376,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="5" t="str">
         <f t="shared" si="2"/>
@@ -11443,7 +11443,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="5" t="str">
         <f t="shared" si="2"/>
@@ -11510,7 +11510,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="5" t="str">
         <f t="shared" si="2"/>
@@ -11577,7 +11577,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="5" t="str">
         <f t="shared" si="2"/>
@@ -11644,7 +11644,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="5" t="str">
         <f t="shared" si="2"/>
@@ -11711,7 +11711,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="5" t="str">
         <f t="shared" si="2"/>
@@ -11778,7 +11778,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="5" t="str">
         <f t="shared" si="2"/>
@@ -11845,7 +11845,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="5" t="str">
         <f t="shared" si="2"/>
@@ -11912,7 +11912,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="5" t="str">
         <f t="shared" si="2"/>
@@ -11979,7 +11979,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="5" t="str">
         <f t="shared" si="2"/>
@@ -12046,7 +12046,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="5" t="str">
         <f t="shared" si="2"/>
@@ -12113,7 +12113,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="5" t="str">
         <f t="shared" si="2"/>
@@ -12180,7 +12180,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="5" t="str">
         <f t="shared" si="2"/>
@@ -12247,7 +12247,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="5" t="str">
         <f t="shared" si="2"/>
@@ -12314,7 +12314,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="5" t="str">
         <f t="shared" si="2"/>
@@ -12381,7 +12381,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="5" t="str">
         <f t="shared" si="2"/>
@@ -12448,7 +12448,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="5" t="str">
         <f t="shared" si="2"/>
@@ -12515,7 +12515,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="5" t="str">
         <f t="shared" si="2"/>
@@ -12582,7 +12582,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="5" t="str">
         <f t="shared" si="2"/>
@@ -12649,7 +12649,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="5" t="str">
         <f t="shared" si="2"/>
@@ -12716,7 +12716,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="5" t="str">
         <f t="shared" si="2"/>
@@ -12783,7 +12783,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="5" t="str">
         <f t="shared" si="2"/>
@@ -12850,7 +12850,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="5" t="str">
         <f t="shared" si="2"/>
@@ -12917,7 +12917,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="5" t="str">
         <f t="shared" si="2"/>
@@ -12984,7 +12984,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="5" t="str">
         <f t="shared" si="2"/>
@@ -13051,7 +13051,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="5" t="str">
         <f t="shared" si="2"/>
@@ -13118,7 +13118,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="5" t="str">
         <f t="shared" si="2"/>
@@ -13185,7 +13185,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="5" t="str">
         <f t="shared" si="2"/>
@@ -13252,7 +13252,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="5" t="str">
         <f t="shared" si="2"/>
@@ -13319,7 +13319,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="5" t="str">
         <f t="shared" si="2"/>
@@ -13386,7 +13386,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="5" t="str">
         <f t="shared" si="2"/>
@@ -13453,7 +13453,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="5" t="str">
         <f t="shared" si="2"/>
@@ -13553,13 +13553,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -13570,7 +13570,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -13583,7 +13583,7 @@
         <v>0.1384</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -13596,7 +13596,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>122</v>
       </c>
@@ -13609,7 +13609,7 @@
         <v>7.1599999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>122</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -13635,7 +13635,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>122</v>
       </c>
@@ -13648,7 +13648,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -13661,7 +13661,7 @@
         <v>9.3333333333333341E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -13674,7 +13674,7 @@
         <v>1.828193832599119E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>122</v>
       </c>
@@ -13687,7 +13687,7 @@
         <v>1.6886930983847283E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>122</v>
       </c>
@@ -13700,7 +13700,7 @@
         <v>7.2687224669603524E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>122</v>
       </c>
@@ -13713,7 +13713,7 @@
         <v>1.0833333333333334E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -13726,7 +13726,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>122</v>
       </c>
@@ -13739,7 +13739,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -13752,7 +13752,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>122</v>
       </c>
@@ -13765,7 +13765,7 @@
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>122</v>
       </c>
@@ -13778,7 +13778,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>122</v>
       </c>
@@ -13791,7 +13791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>122</v>
       </c>
@@ -13804,7 +13804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>122</v>
       </c>
@@ -13817,7 +13817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>122</v>
       </c>
@@ -13830,7 +13830,7 @@
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>122</v>
       </c>
@@ -13843,7 +13843,7 @@
         <v>1.1800000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>122</v>
       </c>
@@ -13856,7 +13856,7 @@
         <v>9.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>122</v>
       </c>
@@ -13869,7 +13869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>122</v>
       </c>
@@ -13882,7 +13882,7 @@
         <v>3.6499999999999998E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>122</v>
       </c>
@@ -13895,7 +13895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>122</v>
       </c>
@@ -13908,7 +13908,7 @@
         <v>6.3333333333333339E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>122</v>
       </c>
@@ -13921,7 +13921,7 @@
         <v>6.3333333333333339E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>122</v>
       </c>
@@ -13934,7 +13934,7 @@
         <v>7.3333333333333334E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>122</v>
       </c>
@@ -13947,7 +13947,7 @@
         <v>0.5357142857142857</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>122</v>
       </c>
@@ -13960,7 +13960,7 @@
         <v>7.5200000000000003E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>122</v>
       </c>
@@ -13973,7 +13973,7 @@
         <v>1.2375</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>122</v>
       </c>
@@ -13986,7 +13986,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>122</v>
       </c>
@@ -13999,7 +13999,7 @@
         <v>5.9200000000000003E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>122</v>
       </c>
@@ -14012,7 +14012,7 @@
         <v>6.720000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>122</v>
       </c>
@@ -14025,7 +14025,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>122</v>
       </c>
@@ -14038,7 +14038,7 @@
         <v>4.2666666666666672E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>122</v>
       </c>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>122</v>
       </c>
@@ -14064,7 +14064,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>122</v>
       </c>
@@ -14077,7 +14077,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>122</v>
       </c>
@@ -14090,7 +14090,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>122</v>
       </c>
@@ -14103,7 +14103,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>122</v>
       </c>
@@ -14116,7 +14116,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>122</v>
       </c>
@@ -14129,7 +14129,7 @@
         <v>5.5066079295154183E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>122</v>
       </c>
@@ -14142,7 +14142,7 @@
         <v>6.6079295154185022E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>122</v>
       </c>
@@ -14155,7 +14155,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>122</v>
       </c>
@@ -14168,7 +14168,7 @@
         <v>0.51327433628318586</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>122</v>
       </c>
@@ -14181,7 +14181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>122</v>
       </c>
@@ -14194,7 +14194,7 @@
         <v>3.3823529411764704E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>122</v>
       </c>
@@ -14207,7 +14207,7 @@
         <v>4.779411764705882E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>122</v>
       </c>
@@ -14220,7 +14220,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>122</v>
       </c>
@@ -14233,7 +14233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>122</v>
       </c>
@@ -14246,7 +14246,7 @@
         <v>8.8000000000000009E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>122</v>
       </c>
@@ -14259,7 +14259,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>122</v>
       </c>
@@ -14272,7 +14272,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>122</v>
       </c>
@@ -14285,7 +14285,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>122</v>
       </c>
@@ -14298,7 +14298,7 @@
         <v>4.9019607843137254E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>122</v>
       </c>
@@ -14311,7 +14311,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>122</v>
       </c>
@@ -14324,7 +14324,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>122</v>
       </c>
@@ -14337,7 +14337,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>122</v>
       </c>
@@ -14350,7 +14350,7 @@
         <v>2.8571428571428571E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>122</v>
       </c>
@@ -14363,7 +14363,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>122</v>
       </c>
@@ -14376,7 +14376,7 @@
         <v>0.11674008810572688</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>122</v>
       </c>
@@ -14389,7 +14389,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>122</v>
       </c>
@@ -14401,7 +14401,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>122</v>
       </c>
@@ -14413,7 +14413,7 @@
         <v>9.3599999999999989E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>122</v>
       </c>
@@ -14425,7 +14425,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>122</v>
       </c>
@@ -14437,7 +14437,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>123</v>
       </c>
@@ -14450,7 +14450,7 @@
         <v>4.6843994126284887</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>123</v>
       </c>
@@ -14463,7 +14463,7 @@
         <v>4.4069566813509553</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>123</v>
       </c>
@@ -14476,7 +14476,7 @@
         <v>4.4762621145374455</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>123</v>
       </c>
@@ -14489,7 +14489,7 @@
         <v>4.5861233480176216</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>123</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>4.2082488986784146</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>123</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>8.4164977973568291</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>123</v>
       </c>
@@ -14528,7 +14528,7 @@
         <v>4.9024669603524238</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>123</v>
       </c>
@@ -14541,7 +14541,7 @@
         <v>9.8049339207048476</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>123</v>
       </c>
@@ -14554,7 +14554,7 @@
         <v>8.725538913362703</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>123</v>
       </c>
@@ -14567,7 +14567,7 @@
         <v>0.9966666666666667</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>123</v>
       </c>
@@ -14580,7 +14580,7 @@
         <v>6.6333333333333337</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>123</v>
       </c>
@@ -14593,7 +14593,7 @@
         <v>65.54891336270191</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>123</v>
       </c>
@@ -14606,7 +14606,7 @@
         <v>2.902790014684288</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>123</v>
       </c>
@@ -14619,7 +14619,7 @@
         <v>4.4528303964757709</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>123</v>
       </c>
@@ -14632,7 +14632,7 @@
         <v>3.5502598773430076</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>123</v>
       </c>
@@ -14645,7 +14645,7 @@
         <v>51.455851688693102</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>123</v>
       </c>
@@ -14658,7 +14658,7 @@
         <v>30.63164170337739</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>123</v>
       </c>
@@ -14671,7 +14671,7 @@
         <v>8.7552055800293687</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>123</v>
       </c>
@@ -14684,7 +14684,7 @@
         <v>6.1409523809523812</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>123</v>
       </c>
@@ -14697,7 +14697,7 @@
         <v>3.7495238095238097</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>123</v>
       </c>
@@ -14710,7 +14710,7 @@
         <v>20.941497797356828</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>123</v>
       </c>
@@ -14723,7 +14723,7 @@
         <v>30.408193832599117</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>123</v>
       </c>
@@ -14736,7 +14736,7 @@
         <v>13.819662261380323</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>123</v>
       </c>
@@ -14748,7 +14748,7 @@
         <v>7.5715800293685769</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>123</v>
       </c>
